--- a/consolidacao/pedidos/CCSA_pedidos.xlsx
+++ b/consolidacao/pedidos/CCSA_pedidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G252"/>
+  <dimension ref="A1:G266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,7 +721,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30.16.1355</t>
+          <t>30.16.1353</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -731,28 +731,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SACO DOCUMENTO, PLÁSTICO TRANSPARENTE, 10 FL, 356MM X 216MM, 4 FUROS.</t>
+          <t>ESTILETE, TIPO LARGO, 20MM, CORPO PLÁSTICO, COMP 11CM, GRADUAL TRAVA DE SEGURANÇA.</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>-81</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30.16.1370</t>
+          <t>30.16.1355</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -762,28 +762,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ETIQUETA AUTO-ADESIVA, MATERIAL PAPEL ALCALINO, COR BRANCA, FORMATO RETANGULAR, ALTURA 70 MM, LARGURA 31 MM, TIPO USO IMPRESSORA JET/LASER/COPIADORAS TAMANHO A4</t>
+          <t>SACO DOCUMENTO, PLÁSTICO TRANSPARENTE, 10 FL, 356MM X 216MM, 4 FUROS.</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-81</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30.16.1371</t>
+          <t>30.16.1370</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -793,14 +793,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>APAGADOR QUADRO MAGNÉTICO, MATERIAL CORPO PLÁSTICO, COMPRIMENTO 15 CM , LARGURA 6 CM. ALTURA 4 CM, MATERIAL BASE FILTRO, ENCAIXE PINCEL</t>
+          <t>ETIQUETA AUTO-ADESIVA, MATERIAL PAPEL ALCALINO, COR BRANCA, FORMATO RETANGULAR, ALTURA 70 MM, LARGURA 31 MM, TIPO USO IMPRESSORA JET/LASER/COPIADORAS TAMANHO A4</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30.16.1373</t>
+          <t>30.16.1371</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -824,14 +824,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CLIPE, TAMANHO 2/0, MATERIAL METAL, FORMATO PARALELO. CAIXA 100 UN</t>
+          <t>APAGADOR QUADRO MAGNÉTICO, MATERIAL CORPO PLÁSTICO, COMPRIMENTO 15 CM , LARGURA 6 CM. ALTURA 4 CM, MATERIAL BASE FILTRO, ENCAIXE PINCEL</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30.16.1375</t>
+          <t>30.16.1373</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -855,14 +855,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>COLCHETE FIXAÇÃO, MATERIAL AÇO, TRATAMENTO SUPERFICIAL LATONADO, TAMANHO Nº 12. CAIXA 72 UN</t>
+          <t>CLIPE, TAMANHO 2/0, MATERIAL METAL, FORMATO PARALELO. CAIXA 100 UN</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30.16.1376</t>
+          <t>30.16.1375</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -886,14 +886,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EXTRATOR GRAMPO, MATERIAL AÇO INOXIDÁVEL, TIPO ESPÁTULA, RATAMENTO SUPERFICIAL CROMADO, CARACTERÍSTICAS ADICIONAIS DIMENSÕES 150 X 20 MM</t>
+          <t>COLCHETE FIXAÇÃO, MATERIAL AÇO, TRATAMENTO SUPERFICIAL LATONADO, TAMANHO Nº 12. CAIXA 72 UN</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30.16.1377</t>
+          <t>30.16.1376</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -917,14 +917,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GRAMPEADOR, TRATAMENTO SUPERFICIAL PINTADO, MATERIAL METAL, TIPO PROFISSIONAL DE GRANDE PORTE, APLICAÇÃO FOLHAS, TAMANHO GRAMPO 23/6, 23/8, 23/10, E 23/13, COR PRETA, CARACT. ADICIONAIS DE MESA/PROFUNDIDADE GRAMPEADO AJUSTÁVEL ATÉ 69 MM</t>
+          <t>EXTRATOR GRAMPO, MATERIAL AÇO INOXIDÁVEL, TIPO ESPÁTULA, RATAMENTO SUPERFICIAL CROMADO, CARACTERÍSTICAS ADICIONAIS DIMENSÕES 150 X 20 MM</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30.16.138</t>
+          <t>30.16.1377</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -948,14 +948,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>REFORÇO AUTO ADESIVO (REFORÇO PLÁSTICO), INCOLOR, 15MM, APLICAÇÃO PAPEL PERFURADO, MATERIAL PLASTICO INCOLOR (CAIXA COM 200 UNIDADES)</t>
+          <t>GRAMPEADOR, TRATAMENTO SUPERFICIAL PINTADO, MATERIAL METAL, TIPO PROFISSIONAL DE GRANDE PORTE, APLICAÇÃO FOLHAS, TAMANHO GRAMPO 23/6, 23/8, 23/10, E 23/13, COR PRETA, CARACT. ADICIONAIS DE MESA/PROFUNDIDADE GRAMPEADO AJUSTÁVEL ATÉ 69 MM</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -969,7 +969,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30.16.1388</t>
+          <t>30.16.138</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,14 +979,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GRAMPEADOR, MATERIAL METAL, TIPO PROFISSIONAL, CAPACID. 240/260 FL, TAMANHO GRAMPO 23/6 A 23/24, CARACT. ADICIONAIS BASE PROTETORA ANTIDERRAPANTE/GUIA AJUSTÁVEL</t>
+          <t>REFORÇO AUTO ADESIVO (REFORÇO PLÁSTICO), INCOLOR, 15MM, APLICAÇÃO PAPEL PERFURADO, MATERIAL PLASTICO INCOLOR (CAIXA COM 200 UNIDADES)</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30.16.1389</t>
+          <t>30.16.1388</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GRAMPO GRAMPEADOR, MATERIAL METAL, TRATAMENTO SUPERFICIAL NIQUELADO, TAMANHO 23/8</t>
+          <t>GRAMPEADOR, MATERIAL METAL, TIPO PROFISSIONAL, CAPACID. 240/260 FL, TAMANHO GRAMPO 23/6 A 23/24, CARACT. ADICIONAIS BASE PROTETORA ANTIDERRAPANTE/GUIA AJUSTÁVEL</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30.16.1397</t>
+          <t>30.16.1389</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LIVRO ATA, MATERIAL PAPEL SULFITE, 100 FOLHAS (GRAMATURA 75 G/M² E TAMANHO A4), CAPA DURA, COSTURADO, FOLHAS PAUTADAS E NUMERADAS.</t>
+          <t>GRAMPO GRAMPEADOR, MATERIAL METAL, TRATAMENTO SUPERFICIAL NIQUELADO, TAMANHO 23/8</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30.16.1398</t>
+          <t>30.16.1397</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1072,14 +1072,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LIVRO PROTOCOLO, MATERIAL PAPEL OFF-SET, 100 FLS, 230X170MM, CAPA DURA, COSTURADO, FOLHAS PAUTADAS E NUMERADAS, MATERIAL CAPA PAPELÃO, GRAMATURA FOLHAS 54 G/M².</t>
+          <t>LIVRO ATA, MATERIAL PAPEL SULFITE, 100 FOLHAS (GRAMATURA 75 G/M² E TAMANHO A4), CAPA DURA, COSTURADO, FOLHAS PAUTADAS E NUMERADAS.</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30.16.1399</t>
+          <t>30.16.1398</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LIVRO REGISTRO DE CERTIFICADO, 200 FL, LEGISLAÇÃO VIGENTE, TERMO DE ABERTURA E ENCERRAMENTO P/ REGISTRO JUNTO AOS ÓRGÃOS COMPETENTES, FORMATO VERTICAL 22 X 32 CM, NUMERADO DE 01 A 400, PAPEL BRANCO, 63g, IMPRESSÃO OFFSET, CAPA PRETA CARTONADA 240g.</t>
+          <t>LIVRO PROTOCOLO, MATERIAL PAPEL OFF-SET, 100 FLS, 230X170MM, CAPA DURA, COSTURADO, FOLHAS PAUTADAS E NUMERADAS, MATERIAL CAPA PAPELÃO, GRAMATURA FOLHAS 54 G/M².</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1124,7 +1124,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30.16.1405</t>
+          <t>30.16.1399</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1134,14 +1134,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TESOURA, MATERIAL AÇO INOX, COMPRIMENTO 11CM, CABO PLÁSTICO, SEM PONTA.</t>
+          <t>LIVRO REGISTRO DE CERTIFICADO, 200 FL, LEGISLAÇÃO VIGENTE, TERMO DE ABERTURA E ENCERRAMENTO P/ REGISTRO JUNTO AOS ÓRGÃOS COMPETENTES, FORMATO VERTICAL 22 X 32 CM, NUMERADO DE 01 A 400, PAPEL BRANCO, 63g, IMPRESSÃO OFFSET, CAPA PRETA CARTONADA 240g.</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1155,7 +1155,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30.16.1409</t>
+          <t>30.16.1405</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PINCEL DESENHO, MATERIAL CABO MADEIRA, TIPO PONTA CHATO, MATERIAL CERDA PELO ANIMAL, TAMANHO 10</t>
+          <t>TESOURA, MATERIAL AÇO INOX, COMPRIMENTO 11CM, CABO PLÁSTICO, SEM PONTA.</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30.16.1417</t>
+          <t>30.16.1409</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1196,14 +1196,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, TIPO MONOFACE, LARGURA 12 MM, COMPRIMENTO 10 M, COR AZUL, APLICAÇÃO MULTIUSO</t>
+          <t>PINCEL DESENHO, MATERIAL CABO MADEIRA, TIPO PONTA CHATO, MATERIAL CERDA PELO ANIMAL, TAMANHO 10</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30.16.1418</t>
+          <t>30.16.1417</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1227,14 +1227,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL POLIPROFILENO, TIPO MONOFACE, LARGURA 12 MM, COMPRIMENTO 10 M, COR VERMELHA, APLICAÇÃO MULTIUSO</t>
+          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, TIPO MONOFACE, LARGURA 12 MM, COMPRIMENTO 10 M, COR AZUL, APLICAÇÃO MULTIUSO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30.16.1419</t>
+          <t>30.16.1418</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1258,14 +1258,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL POLIPROFILENO,, TIPO MONOFACE, LARGURA 12 MM, COMPRIMENTO 10 M, COR AMARELA, APLICAÇÃO MULTIUSO</t>
+          <t>FITA ADESIVA, MATERIAL POLIPROFILENO, TIPO MONOFACE, LARGURA 12 MM, COMPRIMENTO 10 M, COR VERMELHA, APLICAÇÃO MULTIUSO</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E27" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1279,7 +1279,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30.16.1420</t>
+          <t>30.16.1419</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1289,14 +1289,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL POLIPROFILENO, TIPO MONOFACE, LARGURA 12 MM, COMPRIMENTO 10 M, COR VERDE, APLICAÇÃO MULTIUSO</t>
+          <t>FITA ADESIVA, MATERIAL POLIPROFILENO,, TIPO MONOFACE, LARGURA 12 MM, COMPRIMENTO 10 M, COR AMARELA, APLICAÇÃO MULTIUSO</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30.16.1421</t>
+          <t>30.16.1420</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1320,14 +1320,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>APONTADOR LÁPIS, MATERIAL METAL E PLÁSTICO, TIPO ESCOLAR, COM DEPÓSITO.</t>
+          <t>FITA ADESIVA, MATERIAL POLIPROFILENO, TIPO MONOFACE, LARGURA 12 MM, COMPRIMENTO 10 M, COR VERDE, APLICAÇÃO MULTIUSO</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30.16.1422</t>
+          <t>30.16.1421</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BLOCO RECADO, MATERIAL PAPEL RECICLADO,AUTO-ADESIVO, COR NATURAL, 76X102 MM, 100 FOLHAS</t>
+          <t>APONTADOR LÁPIS, MATERIAL METAL E PLÁSTICO, TIPO ESCOLAR, COM DEPÓSITO.</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="E30" t="n">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30.16.1423</t>
+          <t>30.16.1422</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BORRACHA APAGADORA ESCRITA, 56X33X11MM, COR BRANCA, C/ CAPA PLÁSTICA PROTETORA</t>
+          <t>BLOCO RECADO, MATERIAL PAPEL RECICLADO,AUTO-ADESIVO, COR NATURAL, 76X102 MM, 100 FOLHAS</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="E31" t="n">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30.16.1424</t>
+          <t>30.16.1423</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1413,28 +1413,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, TINTA PRETA, MATERIAL PONTA LATÃO COM ESFERA TUNGSTÊNIO, TIPO ESCRITA MÉDIA, TRANSPARENTE E COM ORIFÍCIO LATERAL</t>
+          <t>BORRACHA APAGADORA ESCRITA, 56X33X11MM, COR BRANCA, C/ CAPA PLÁSTICA PROTETORA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E32" t="n">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30.16.1425</t>
+          <t>30.16.1424</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1444,28 +1444,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, TINTA VERMELHA, MATERIAL PNTA LATÃO COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, TRANSPARENTE E COM ORIFÍCIO LATERAL</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, TINTA PRETA, MATERIAL PONTA LATÃO COM ESFERA TUNGSTÊNIO, TIPO ESCRITA MÉDIA, TRANSPARENTE E COM ORIFÍCIO LATERAL</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="E33" t="n">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>pedido no suap</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30.16.1426</t>
+          <t>30.16.1425</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1475,14 +1475,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, TINTA AZUL, MATERIAL PONTA LATÃO COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, TRANSPARENTE E COM ORIFÍCIO LATERAL</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, TINTA VERMELHA, MATERIAL PNTA LATÃO COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, TRANSPARENTE E COM ORIFÍCIO LATERAL</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E34" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30.16.1429</t>
+          <t>30.16.1426</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1506,14 +1506,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ENVELOPE, MATERIAL PAPEL OFF-SET FL, GRAMATURA 90 G/M2, TIPO SACO COMUM, COMPRIMENTO 229 MM,C OR BRANCA, SEM IMPRESSÃO, LARGURA 114 MM, MODELO OFICIO</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, TINTA AZUL, MATERIAL PONTA LATÃO COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, TRANSPARENTE E COM ORIFÍCIO LATERAL</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="E35" t="n">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30.16.1430</t>
+          <t>30.16.1429</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1537,14 +1537,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ENVELOPE, MATERIAL PAPEL APERGAMINHADO, GRAMATURA 90 G/M2, TIPO OFICIO, COMPRIMENTO 229 MM, COR BRANCA, LARGURA 114 MM, APLICAÇÃO CORRESPONDÊNCIA, CARACT. ADICIONAIS 1 TIMBRADO, CONFORME MODELO</t>
+          <t>ENVELOPE, MATERIAL PAPEL OFF-SET FL, GRAMATURA 90 G/M2, TIPO SACO COMUM, COMPRIMENTO 229 MM,C OR BRANCA, SEM IMPRESSÃO, LARGURA 114 MM, MODELO OFICIO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="E36" t="n">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30.16.1434</t>
+          <t>30.16.1430</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1568,14 +1568,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LÁPIS PRETO, CORPO MADEIRA, DIÂMETRO CARGA 2MM, DUREZA CARGA 2 B, SEM BORRACHA APAGADORA, MATERIAL CARGA GRAFITE.</t>
+          <t>ENVELOPE, MATERIAL PAPEL APERGAMINHADO, GRAMATURA 90 G/M2, TIPO OFICIO, COMPRIMENTO 229 MM, COR BRANCA, LARGURA 114 MM, APLICAÇÃO CORRESPONDÊNCIA, CARACT. ADICIONAIS 1 TIMBRADO, CONFORME MODELO</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c r="E37" t="n">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30.16.1435</t>
+          <t>30.16.1434</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1599,14 +1599,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LAPISEIRA,MATERIAL PLÁSTICO,DIÂMETRO CARGA 0,5MM,CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA</t>
+          <t>LÁPIS PRETO, CORPO MADEIRA, DIÂMETRO CARGA 2MM, DUREZA CARGA 2 B, SEM BORRACHA APAGADORA, MATERIAL CARGA GRAFITE.</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1620,7 +1620,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30.16.1436</t>
+          <t>30.16.1435</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1630,14 +1630,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LAPISEIRA, MATERIAL PLÁSTICO, DIÂMETRO CARGA 0,7MM, CARACTERÍSTICAS ADICIONAIS COM PREENDEDOR, PONTA E ACIONADOR DE METAL COM BORRACHA</t>
+          <t>LAPISEIRA,MATERIAL PLÁSTICO,DIÂMETRO CARGA 0,5MM,CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30.16.1437</t>
+          <t>30.16.1436</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1661,14 +1661,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, DIÂMETRO 0,50 MM, COMPRIMENTO 60 MM, DUREZA HB</t>
+          <t>LAPISEIRA, MATERIAL PLÁSTICO, DIÂMETRO CARGA 0,7MM, CARACTERÍSTICAS ADICIONAIS COM PREENDEDOR, PONTA E ACIONADOR DE METAL COM BORRACHA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E40" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30.16.1438</t>
+          <t>30.16.1437</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1692,14 +1692,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, DIÂMETRO 0,70 MM, COMPRIMENTO 60MM, DUREZA HB</t>
+          <t>MINA GRAFITE, DIÂMETRO 0,50 MM, COMPRIMENTO 60 MM, DUREZA HB</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30.16.1439</t>
+          <t>30.16.1438</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1723,14 +1723,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, DIÂMETRO 0,90 MM, COMPRIMENTO 60 MM, DUREZA HB</t>
+          <t>MINA GRAFITE, DIÂMETRO 0,70 MM, COMPRIMENTO 60MM, DUREZA HB</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E42" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1744,7 +1744,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30.16.1440</t>
+          <t>30.16.1439</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO, TIPO PONTA POLIÉSTER, COR TINTA AZUL, CARACTERÍSTICAS ADICIONAIS PONTA 2MM</t>
+          <t>MINA GRAFITE, DIÂMETRO 0,90 MM, COMPRIMENTO 60 MM, DUREZA HB</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30.16.1442</t>
+          <t>30.16.1440</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1785,14 +1785,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MARCADOR PÁGINA, MATERIAL FILME DE POLIÉSTER E ADESIVO ACRÍLICO, COR DIVERSAS, LARGURA 22 MM, COMPRIMENTO 43 MM, CARACTERÍSTICAS ADICIONAIS REPOSICIONÁVEL, REUTILIZÁVEL</t>
+          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO, TIPO PONTA POLIÉSTER, COR TINTA AZUL, CARACTERÍSTICAS ADICIONAIS PONTA 2MM</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30.16.1443</t>
+          <t>30.16.1442</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1816,14 +1816,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO TRIPLA, LARGURA 255 MM, ALTURA 185 MM, CARACTERÍSTICAS ADICIONAIS COM INCLINAÇÃO ENTRE AS BANDEJAS, PROFUNDIDADE 255 MM</t>
+          <t>MARCADOR PÁGINA, MATERIAL FILME DE POLIÉSTER E ADESIVO ACRÍLICO, COR DIVERSAS, LARGURA 22 MM, COMPRIMENTO 43 MM, CARACTERÍSTICAS ADICIONAIS REPOSICIONÁVEL, REUTILIZÁVEL</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -1837,7 +1837,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30.16.1444</t>
+          <t>30.16.1443</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO DUPLA, COMPRIMENTO 370 MM, LARGURA 255 MM, ALTURA 180 MM, CARACTERÍSTICAS ADICIONAIS COM INCLINAÇÃO ENTRE AS BANDEJAS</t>
+          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO TRIPLA, LARGURA 255 MM, ALTURA 185 MM, CARACTERÍSTICAS ADICIONAIS COM INCLINAÇÃO ENTRE AS BANDEJAS, PROFUNDIDADE 255 MM</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30.16.1445</t>
+          <t>30.16.1444</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1878,14 +1878,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO SIMPLES, COMPRIMENTO 370 MM, LARGURA 255 MM</t>
+          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO DUPLA, COMPRIMENTO 370 MM, LARGURA 255 MM, ALTURA 180 MM, CARACTERÍSTICAS ADICIONAIS COM INCLINAÇÃO ENTRE AS BANDEJAS</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E47" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -1899,7 +1899,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>30.16.1446</t>
+          <t>30.16.1445</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1909,14 +1909,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PAPEL A4 ALCALINO, GRAMATURA 75 G/M2, COR AZUL, C/ 100 FL</t>
+          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO SIMPLES, COMPRIMENTO 370 MM, LARGURA 255 MM</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -1930,7 +1930,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>30.16.1453</t>
+          <t>30.16.1446</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1940,14 +1940,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PAPEL MANTEIGA, MATERIAL CELULOSE VEGETAL, 40 G/M2, 297 X 210 MM, FORMATO A4, APLICAÇÃO DESENHO TÉCNICO</t>
+          <t>PAPEL A4 ALCALINO, GRAMATURA 75 G/M2, COR AZUL, C/ 100 FL</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>30.16.1456</t>
+          <t>30.16.1453</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1971,14 +1971,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PAPEL MANTEIGA, MATERIAL CELULOSE VEGETAL, 40 G/M2, 420 X 297 MM, FORMATO A3, APLICAÇÃO DESENHO TÉCNICO</t>
+          <t>PAPEL MANTEIGA, MATERIAL CELULOSE VEGETAL, 40 G/M2, 297 X 210 MM, FORMATO A4, APLICAÇÃO DESENHO TÉCNICO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -1992,7 +1992,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>30.16.1460</t>
+          <t>30.16.1456</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2002,14 +2002,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PAPEL COLOR SET (BRANCA) - 66 X 48 CM, 120 G/M2, APLICAÇÃO CONFECÇÃO DE CARTAZES, C/ 20 FL</t>
+          <t>PAPEL MANTEIGA, MATERIAL CELULOSE VEGETAL, 40 G/M2, 420 X 297 MM, FORMATO A3, APLICAÇÃO DESENHO TÉCNICO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>30.16.1481</t>
+          <t>30.16.1460</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2033,14 +2033,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GRAMPO TRILHO ENCADERNADOR, POLIPROPILENO, COMPRIMENTO 195 MM, TIPO GARRA, LARGURA 50 MM, COR BRANCA</t>
+          <t>PAPEL COLOR SET (BRANCA) - 66 X 48 CM, 120 G/M2, APLICAÇÃO CONFECÇÃO DE CARTAZES, C/ 20 FL</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>493</v>
+        <v>9</v>
       </c>
       <c r="E52" t="n">
-        <v>493</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30.16.1523</t>
+          <t>30.16.1481</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2064,14 +2064,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SACO DOCUMENTO, MATERIAL PLÁSTICO TRANSPARENTE, CAPACIDADE FOLHAS 40 FL, COMPRIMENTO 330 MM, LARGURA 240 MM, NÚMERO FUROS SEM FUROS. PACOTE COM 50 UN.</t>
+          <t>GRAMPO TRILHO ENCADERNADOR, POLIPROPILENO, COMPRIMENTO 195 MM, TIPO GARRA, LARGURA 50 MM, COR BRANCA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>493</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>493</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2085,7 +2085,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>30.16.1539</t>
+          <t>30.16.1523</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2095,14 +2095,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CARIMBO DATADOR AUTOMÁTICO R 24 REDONDO 5X8MM MARCA NYLON</t>
+          <t>SACO DOCUMENTO, MATERIAL PLÁSTICO TRANSPARENTE, CAPACIDADE FOLHAS 40 FL, COMPRIMENTO 330 MM, LARGURA 240 MM, NÚMERO FUROS SEM FUROS. PACOTE COM 50 UN.</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>30.16.1582</t>
+          <t>30.16.1539</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2126,14 +2126,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>COPO DESCARTÁVEL 80 ml. Caixa c/ 2500 copos divididos em 25 sacolas com 100 unidades</t>
+          <t>CARIMBO DATADOR AUTOMÁTICO R 24 REDONDO 5X8MM MARCA NYLON</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>30.16.1619</t>
+          <t>30.16.1582</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2157,14 +2157,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TESOURA COSTURA, MATERIAL AÇO INOXIDÁVEL, TAMANHO 8,5 POL, COMPRIMENTO 21 CM</t>
+          <t>COPO DESCARTÁVEL 80 ml. Caixa c/ 2500 copos divididos em 25 sacolas com 100 unidades</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E56" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>30.16.1620</t>
+          <t>30.16.1619</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2188,14 +2188,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CADERNO UNIVERSITÁRIO, APRESENTAÇÃO ESPIRAL, 200 FLS, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PAPELÃO, 280X205MM</t>
+          <t>TESOURA COSTURA, MATERIAL AÇO INOXIDÁVEL, TAMANHO 8,5 POL, COMPRIMENTO 21 CM</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E57" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2209,7 +2209,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>30.16.1621</t>
+          <t>30.16.1620</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2219,14 +2219,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PAPEL A4, MATERIAL PAPEL ALCALINO, COMPRIMENTO 297MM, LARGURA 210MM, APLICAÇÃO IMPRESSORA LASER E JATO DE TINTA, GRAMATURA 75 G/M2, COR BRANCA MARCA: One.</t>
+          <t>CADERNO UNIVERSITÁRIO, APRESENTAÇÃO ESPIRAL, 200 FLS, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PAPELÃO, 280X205MM</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>30.16.1694</t>
+          <t>30.16.1621</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2250,14 +2250,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PAPEL A4, MATERIAL PAPEL ALCALINO, COMPRIMENTO 297MM, LARGURA 210MM, GRAMATURA 75 G/M2, COR BRANCA</t>
+          <t>PAPEL A4, MATERIAL PAPEL ALCALINO, COMPRIMENTO 297MM, LARGURA 210MM, APLICAÇÃO IMPRESSORA LASER E JATO DE TINTA, GRAMATURA 75 G/M2, COR BRANCA MARCA: One.</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="E59" t="n">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -2271,7 +2271,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>30.16.181</t>
+          <t>30.16.1694</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2281,14 +2281,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CLIPE, TAMANHO 8/0, MATERIAL METAL, FORMATO PARALELO, CAIXA COM 25 UN.</t>
+          <t>PAPEL A4, MATERIAL PAPEL ALCALINO, COMPRIMENTO 297MM, LARGURA 210MM, GRAMATURA 75 G/M2, COR BRANCA</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>30.16.1841</t>
+          <t>30.16.181</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2312,14 +2312,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CANETA DESENHO ARQUITETONICO, MATERIAL CORPO PLASTICO, PONTA NAÍLON, CORPO CILINDRICO 10MM, CARGA 0,10MM, 14CM, BASE D'AGUA E PIGMENTO NANQUIM</t>
+          <t>CLIPE, TAMANHO 8/0, MATERIAL METAL, FORMATO PARALELO, CAIXA COM 25 UN.</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>30.16.1899</t>
+          <t>30.16.1841</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2343,14 +2343,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CARIMBO, 18X47 MM, FORMATO RETÂNGULAR, AUTO-ENTINTADO.</t>
+          <t>CANETA DESENHO ARQUITETONICO, MATERIAL CORPO PLASTICO, PONTA NAÍLON, CORPO CILINDRICO 10MM, CARGA 0,10MM, 14CM, BASE D'AGUA E PIGMENTO NANQUIM</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2364,7 +2364,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>30.16.1901</t>
+          <t>30.16.1899</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CARIMBO, 37X76 MM, FORMATO RETANGULAR, AUTO-ENTINTADO.</t>
+          <t>CARIMBO, 18X47 MM, FORMATO RETÂNGULAR, AUTO-ENTINTADO.</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -2395,7 +2395,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>30.16.1954</t>
+          <t>30.16.1901</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2405,14 +2405,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BARBANTE ALGODÃO, QUANTIDADE FIOS 6 UNIDADES, ACABAMENTO SUPERFICIAL CRU.</t>
+          <t>CARIMBO, 37X76 MM, FORMATO RETANGULAR, AUTO-ENTINTADO.</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2426,7 +2426,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>30.16.1957</t>
+          <t>30.16.1902</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2436,14 +2436,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL PLÁSTICO, TIPO SUSPENSA.</t>
+          <t>CARIMBO, 20 MM DIÂMETRO, FORMATO REDONDO, AUTO-ENTINTADO.</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E65" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>30.16.2019</t>
+          <t>30.16.1954</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2467,14 +2467,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Pistola aplicadora de cola quente. Bivoltagem: 110/220 V; 40 Watts; ponta com isolante térmico; para refil de 11 a 12 mm de diâmetro. Marca: Jocar.</t>
+          <t>BARBANTE ALGODÃO, QUANTIDADE FIOS 6 UNIDADES, ACABAMENTO SUPERFICIAL CRU.</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>30.16.2045</t>
+          <t>30.16.1957</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2498,14 +2498,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>EXTRATOR GRAMPO, MATERIAL AÇO, TIPO ESPÁTULA, TRATAMENTO SUPERFICIAL CROMADO</t>
+          <t>PASTA ARQUIVO, MATERIAL PLÁSTICO, TIPO SUSPENSA.</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E67" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>30.16.2047</t>
+          <t>30.16.2019</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2529,14 +2529,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CLIPE, TAMANHO 6/0, MATERIAL METAL, FORMATO PARALELO</t>
+          <t>Pistola aplicadora de cola quente. Bivoltagem: 110/220 V; 40 Watts; ponta com isolante térmico; para refil de 11 a 12 mm de diâmetro. Marca: Jocar.</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>30.16.2048</t>
+          <t>30.16.2045</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2560,14 +2560,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CLIPE, TAMANHO 8/0, MATERIAL METAL, FORMATO PARALELO</t>
+          <t>EXTRATOR GRAMPO, MATERIAL AÇO, TIPO ESPÁTULA, TRATAMENTO SUPERFICIAL CROMADO</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>30.16.2061</t>
+          <t>30.16.2047</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2591,14 +2591,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Calculadora eletrônica de mesa, com 12 dígitos, alimentação com bateria HR1130 ou célula solar. Marca: Kenko.</t>
+          <t>CLIPE, TAMANHO 6/0, MATERIAL METAL, FORMATO PARALELO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>30.16.2077</t>
+          <t>30.16.2048</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2622,14 +2622,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Grampo, grampeador, material metal, tratamento superficial niquelado, tamanho 26/6, Marca Jocar.</t>
+          <t>CLIPE, TAMANHO 8/0, MATERIAL METAL, FORMATO PARALELO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E71" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>30.16.2078</t>
+          <t>30.16.2061</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2653,28 +2653,28 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Grampeador, tratamento superficial pintado, material metal, tipo mesa, capacidade 20 FL, aplicação papel,</t>
+          <t>Calculadora eletrônica de mesa, com 12 dígitos, alimentação com bateria HR1130 ou célula solar. Marca: Kenko.</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E72" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>30.16.2085</t>
+          <t>30.16.2077</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CALCULADORA ELETRÔNICA DE BOLSO 8 DÍGITOS. POSSUI VISOR DE LCD, CALCULA RAIZ QUADRADA, PORCENTAGEM, ALÉM DAS QUATRO OPERAÇÕES BÁSICAS. POSSUI MEMÓRIA DE DESLIGAMENTO AUTOMÁTICO, COM FUNCIONAMENTO A PILHA AA OU AAA 1,5V ENERGIA SOLAR</t>
+          <t>Grampo, grampeador, material metal, tratamento superficial niquelado, tamanho 26/6, Marca Jocar.</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E73" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2705,7 +2705,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>30.16.2137</t>
+          <t>30.16.2078</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2715,28 +2715,28 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL PAPELÃO PRENSADO, TIPO AZ, LOMBADA 85 MM (LARGA).</t>
+          <t>Grampeador, tratamento superficial pintado, material metal, tipo mesa, capacidade 20 FL, aplicação papel,</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="E74" t="n">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>pedido no suap</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>30.16.2139</t>
+          <t>30.16.2085</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2746,14 +2746,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PRANCHETA, MATERIAL ACRÍLICO, COMPRIMENTO 350 mm, LARGURA 250 mm, COR FUMÊ, COM PRENDEDOR PLÁSTICO.</t>
+          <t>CALCULADORA ELETRÔNICA DE BOLSO 8 DÍGITOS. POSSUI VISOR DE LCD, CALCULA RAIZ QUADRADA, PORCENTAGEM, ALÉM DAS QUATRO OPERAÇÕES BÁSICAS. POSSUI MEMÓRIA DE DESLIGAMENTO AUTOMÁTICO, COM FUNCIONAMENTO A PILHA AA OU AAA 1,5V ENERGIA SOLAR</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>30.16.2191</t>
+          <t>30.16.2137</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2777,14 +2777,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ETIQUETA ADESIVA, MATERIAL PAPEL, COR BRANCO FOSCO, APLICAÇÃO CD-ROM, REDONDO, DIÂMETRO 116 MM, CAIXA COM 50 UNIDADES.</t>
+          <t>PASTA ARQUIVO, MATERIAL PAPELÃO PRENSADO, TIPO AZ, LOMBADA 85 MM (LARGA).</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>30.16.2198</t>
+          <t>30.16.2139</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2808,14 +2808,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>BASE P/ FITA ADESIVA, MATERIAL PLÁSTICO RESISTENTE, TAMANHO PEQUENO, CARACTERÍSTICAS ADICIONAIS LÂMINA DE CORTE EM AÇO INOX SERRILHADO, COM ROLDANA.</t>
+          <t>PRANCHETA, MATERIAL ACRÍLICO, COMPRIMENTO 350 mm, LARGURA 250 mm, COR FUMÊ, COM PRENDEDOR PLÁSTICO.</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2829,7 +2829,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>30.16.2199</t>
+          <t>30.16.2143</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2839,14 +2839,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ENVELOPE, MATERIAL PAPEL KRAFT FL, GRAMATURA 90 G/M2, TIPO SACO COMUM, COMPRIMENTO 324 MM, LARGURA 229 MM, COR PARDA.</t>
+          <t>Garrafa térmica de pressão 1 L.</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="E78" t="n">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>30.16.2200</t>
+          <t>30.16.2191</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2870,14 +2870,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ENVELOPE, MATERIAL PAPEL KRAFT FL, GRAMATURA 80 G/M2, TIPO SACO COMUM, COMPRIMENTO 230 MM, LARGURA 162 MM, COR PARDA</t>
+          <t>ETIQUETA ADESIVA, MATERIAL PAPEL, COR BRANCO FOSCO, APLICAÇÃO CD-ROM, REDONDO, DIÂMETRO 116 MM, CAIXA COM 50 UNIDADES.</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2375</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>2375</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>30.16.2203</t>
+          <t>30.16.2198</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2901,14 +2901,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PAPEL ALMAÇO, MATERIAL CELULOSE VEGETAL, GRAMATURA 75 G/M2, TIPO COM PAUTA E MARGEM, PACOTE C/ 10 UNIDADES</t>
+          <t>BASE P/ FITA ADESIVA, MATERIAL PLÁSTICO RESISTENTE, TAMANHO PEQUENO, CARACTERÍSTICAS ADICIONAIS LÂMINA DE CORTE EM AÇO INOX SERRILHADO, COM ROLDANA.</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>30.16.2204</t>
+          <t>30.16.2199</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2932,14 +2932,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PAPEL, MATERIAL CELULOSE VEGETAL, GRAMATURA 300 G/M2, COR PALHA, COMPRIMENTO 106 CM, LARGURA 78 CM, TIPO FILIFOLD, (PAPEL GRAVURA).</t>
+          <t>ENVELOPE, MATERIAL PAPEL KRAFT FL, GRAMATURA 90 G/M2, TIPO SACO COMUM, COMPRIMENTO 324 MM, LARGURA 229 MM, COR PARDA.</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="E81" t="n">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>30.16.2206</t>
+          <t>30.16.2200</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2963,14 +2963,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PAPEL VERGÊ, MATERIAL CELULOSE VEGETAL, COR BRANCO LINHO, TIPO CLÁSSICO, GRAMATURA 90 G/M2, FORMATO A4, PACOTE C/ 100 FOLHAS.</t>
+          <t>ENVELOPE, MATERIAL PAPEL KRAFT FL, GRAMATURA 80 G/M2, TIPO SACO COMUM, COMPRIMENTO 230 MM, LARGURA 162 MM, COR PARDA</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>23</v>
+        <v>2375</v>
       </c>
       <c r="E82" t="n">
-        <v>23</v>
+        <v>2375</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2984,7 +2984,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>30.16.2208</t>
+          <t>30.16.2203</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2994,14 +2994,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PONTA SECA, PONTA EM AÇO E CABO EM MADEIRA, SIMILAR AO LÁPIS. APLICAÇÃO: UTILIZADA P/ GRAVAÇÃO DIRETA.</t>
+          <t>PAPEL ALMAÇO, MATERIAL CELULOSE VEGETAL, GRAMATURA 75 G/M2, TIPO COM PAUTA E MARGEM, PACOTE C/ 10 UNIDADES</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>30.16.2387</t>
+          <t>30.16.2204</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3025,14 +3025,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>RÉGUA ESCRITÓRIO, MATERIAL ACRÍLICO, COMPRIMENTO 50cm, GRADUAÇÃO CENTÍMETRO / MILÍMETRO, MATERIAL FLEXÍVEL, INCOLOR, TRANSPARENTE.</t>
+          <t>PAPEL, MATERIAL CELULOSE VEGETAL, GRAMATURA 300 G/M2, COR PALHA, COMPRIMENTO 106 CM, LARGURA 78 CM, TIPO FILIFOLD, (PAPEL GRAVURA).</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E84" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>30.16.2477</t>
+          <t>30.16.2206</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3056,14 +3056,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PERFURADOR DE PAPEL, MATERIAL METAL, TIPO GRANDE, TRATAMENTO SUPERFICIAL NIQUELADO, CAPACIDADE PERFURAÇÃO 20 FL, FUNCIONAMENTO MANUAL.</t>
+          <t>PAPEL VERGÊ, MATERIAL CELULOSE VEGETAL, COR BRANCO LINHO, TIPO CLÁSSICO, GRAMATURA 90 G/M2, FORMATO A4, PACOTE C/ 100 FOLHAS.</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E85" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>30.16.2485</t>
+          <t>30.16.2208</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3087,14 +3087,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CONJUNTO MULTIUSO ESCRITÓRIO, MATERIAL ACRÍLICO, APLICAÇÃO LÁPIS, ACESSÓRIOS REGUA, TESOURA, LÁPIS, CANETA, BORRACHA, ESQUADRO, MODELO BÁSICO.</t>
+          <t>PONTA SECA, PONTA EM AÇO E CABO EM MADEIRA, SIMILAR AO LÁPIS. APLICAÇÃO: UTILIZADA P/ GRAVAÇÃO DIRETA.</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E86" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>30.16.2492</t>
+          <t>30.16.2387</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3118,14 +3118,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"PAPEL A4", MATERIAL PAPEL RECICLADO, COMPRIMENTO 297 MM, LARGURA 210 MM, APLICAÇÃO IMPRESSORA JATO TINTA, GRAMATURA 75 G/M2, COR BRANCA</t>
+          <t>RÉGUA ESCRITÓRIO, MATERIAL ACRÍLICO, COMPRIMENTO 50cm, GRADUAÇÃO CENTÍMETRO / MILÍMETRO, MATERIAL FLEXÍVEL, INCOLOR, TRANSPARENTE.</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="E87" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3139,7 +3139,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>30.16.2497</t>
+          <t>30.16.2477</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3149,14 +3149,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MARCADOR PÁGINA, MATERIAL FILME DE POLIÉSTER ADESIVO ACRÍLICO, COR DIVERSAS, LARGURA 12 MM, COMPRIMENTO 42 MM, TRANSMITÂNCIA TRANSPARENTE.</t>
+          <t>PERFURADOR DE PAPEL, MATERIAL METAL, TIPO GRANDE, TRATAMENTO SUPERFICIAL NIQUELADO, CAPACIDADE PERFURAÇÃO 20 FL, FUNCIONAMENTO MANUAL.</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E88" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -3170,7 +3170,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>30.16.2567</t>
+          <t>30.16.2485</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3180,14 +3180,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PLASTIFICADO, LOMBADA 20 MM, COR AZUL, CARACTERÍSTICAS ADICIONAIS COM ABA E ELÁSTICO, TAMANHO OFÍCIO</t>
+          <t>CONJUNTO MULTIUSO ESCRITÓRIO, MATERIAL ACRÍLICO, APLICAÇÃO LÁPIS, ACESSÓRIOS REGUA, TESOURA, LÁPIS, CANETA, BORRACHA, ESQUADRO, MODELO BÁSICO.</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E89" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>30.16.2674</t>
+          <t>30.16.2492</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3211,14 +3211,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Pasta arquivo, material cartão plastificado, sem lombada, com aba e elástico, tamanho ofício.</t>
+          <t>"PAPEL A4", MATERIAL PAPEL RECICLADO, COMPRIMENTO 297 MM, LARGURA 210 MM, APLICAÇÃO IMPRESSORA JATO TINTA, GRAMATURA 75 G/M2, COR BRANCA</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="E90" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>30.16.2682</t>
+          <t>30.16.2497</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3242,14 +3242,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>PAPEL SEDA, AMARELO, COMPRIMENTO 70 CM, LARGURA 50 CM.</t>
+          <t>MARCADOR PÁGINA, MATERIAL FILME DE POLIÉSTER ADESIVO ACRÍLICO, COR DIVERSAS, LARGURA 12 MM, COMPRIMENTO 42 MM, TRANSMITÂNCIA TRANSPARENTE.</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>30.16.2683</t>
+          <t>30.16.2567</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3273,14 +3273,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PAPEL SEDA, VERMELHO, COMPRIMENTO 70 CM, LARGURA 50 CM.</t>
+          <t>PASTA ARQUIVO, MATERIAL CARTÃO PLASTIFICADO, LOMBADA 20 MM, COR AZUL, CARACTERÍSTICAS ADICIONAIS COM ABA E ELÁSTICO, TAMANHO OFÍCIO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3294,7 +3294,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>30.16.2685</t>
+          <t>30.16.2672</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3304,14 +3304,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PAPEL SEDA, VERDE, COMPRIMENTO 70 CM, LARGURA 50 CM, MATERIAL CELULOSE VEGETAL.</t>
+          <t>Quadro/Display Multiuso, formato A4, autoadesivo, material poliestireno, cor cristal, transparente, com corte para auxílio na retirada do aviso, modelo referência Acrimet 865.0.</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>30.16.2686</t>
+          <t>30.16.2674</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3335,14 +3335,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>PAPEL SEDA, AZUL, COMPRIMENTO 70 CM, LARGURA 50 CM.</t>
+          <t>Pasta arquivo, material cartão plastificado, sem lombada, com aba e elástico, tamanho ofício.</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>30.16.2687</t>
+          <t>30.16.2682</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PAPEL SEDA, BRANCO, COMPRIMENTO 70 CM, LARGURA 50 CM.</t>
+          <t>PAPEL SEDA, AMARELO, COMPRIMENTO 70 CM, LARGURA 50 CM.</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -3387,7 +3387,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>30.16.2688</t>
+          <t>30.16.2683</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3397,14 +3397,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>PAPEL CREPOM, VERMELHO, COMPRIMENTO 2M, LARGURA 48 CM.</t>
+          <t>PAPEL SEDA, VERMELHO, COMPRIMENTO 70 CM, LARGURA 50 CM.</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>30.16.2691</t>
+          <t>30.16.2685</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3428,14 +3428,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>PAPEL CREPOM, VERDE, COMPRIMENTO 2M, LARGURA 48 CM.</t>
+          <t>PAPEL SEDA, VERDE, COMPRIMENTO 70 CM, LARGURA 50 CM, MATERIAL CELULOSE VEGETAL.</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>30.16.2694</t>
+          <t>30.16.2686</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PAPEL COLOR SET, PRETO.</t>
+          <t>PAPEL SEDA, AZUL, COMPRIMENTO 70 CM, LARGURA 50 CM.</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -3480,7 +3480,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>30.16.2695</t>
+          <t>30.16.2687</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>PAPEL COLOR SET, VERMELHO.</t>
+          <t>PAPEL SEDA, BRANCO, COMPRIMENTO 70 CM, LARGURA 50 CM.</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -3511,7 +3511,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>30.16.2696</t>
+          <t>30.16.2688</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3521,14 +3521,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>PAPEL COLOR SET, LARANJA.</t>
+          <t>PAPEL CREPOM, VERMELHO, COMPRIMENTO 2M, LARGURA 48 CM.</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>30.16.2697</t>
+          <t>30.16.2691</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3552,14 +3552,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>TNT, VERMELHO, 100 G/M2, LARGURA 1,40.</t>
+          <t>PAPEL CREPOM, VERDE, COMPRIMENTO 2M, LARGURA 48 CM.</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3573,7 +3573,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>30.16.2698</t>
+          <t>30.16.2694</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3583,14 +3583,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>TNT, AZUL, GRAMATURA 100 G/M2, LARGURA 1,40.</t>
+          <t>PAPEL COLOR SET, PRETO.</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3604,7 +3604,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>30.16.276</t>
+          <t>30.16.2695</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3614,14 +3614,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>PAPEL CASCA DE OVO ( COR BRANCA ) - FORMATO A4, GRAMATURA 180 G/M², MATERIAL CELULOSE, COMPRIMENTO 297MM, LARGURA 210MM, APLICAÇÃO IMPRESSORA JATO DE TINTA.</t>
+          <t>PAPEL COLOR SET, VERMELHO.</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E103" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>30.16.289</t>
+          <t>30.16.2696</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3645,14 +3645,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>PAPEL EMBORRACHADO, COR VERDE MATERIAL BORRACHA EVA, COMPRIMENTO 60 CM, LARGURA 40 CM, ESPESSURA 2 MM, PADRÃO LISO, COR VERDE, APLICAÇÃO CONFECÇÃO DEDE PAINEIS</t>
+          <t>PAPEL COLOR SET, LARANJA.</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E104" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>30.16.297</t>
+          <t>30.16.2697</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3676,14 +3676,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>PAPEL EMBORRACHADO, COR VERMELHO, MATERIAL BORRACHA EVA, COMPRIMENTO 60 CM, LARGURA 40 CM, ESPESSURA 2 MM, PADRÃO LISO, APLICAÇÃO CONFECÇÃO DEDE PAINEIS</t>
+          <t>TNT, VERMELHO, 100 G/M2, LARGURA 1,40.</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3697,7 +3697,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>30.16.320</t>
+          <t>30.16.2698</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3707,14 +3707,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>PAPEL CARTOLINA, MATERIAL CELULOSE VEGETAL, GRAMATURA 180 G/M2, COR BRANCA, 660X500 MM</t>
+          <t>TNT, AZUL, GRAMATURA 100 G/M2, LARGURA 1,40.</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E106" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3728,7 +3728,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>30.16.347</t>
+          <t>30.16.276</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3738,14 +3738,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>LAPISEIRA, MATERIAL PLÁSTICO, DIÂMETRO CARGA 0.9MM, C/ PRENDEDOR, PONTA E ACIONADOR DE METAL, C/ BORRACHA APAGADORA.</t>
+          <t>PAPEL CASCA DE OVO ( COR BRANCA ) - FORMATO A4, GRAMATURA 180 G/M², MATERIAL CELULOSE, COMPRIMENTO 297MM, LARGURA 210MM, APLICAÇÃO IMPRESSORA JATO DE TINTA.</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E107" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>30.16.390</t>
+          <t>30.16.289</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3769,14 +3769,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PAPEL CARTOLINA, MATERIAL CELULOSE VEGETAL, GRAMATURA 180 G/M2, COR VERDE, 660X500MM</t>
+          <t>PAPEL EMBORRACHADO, COR VERDE MATERIAL BORRACHA EVA, COMPRIMENTO 60 CM, LARGURA 40 CM, ESPESSURA 2 MM, PADRÃO LISO, COR VERDE, APLICAÇÃO CONFECÇÃO DEDE PAINEIS</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E108" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>30.16.537</t>
+          <t>30.16.297</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3800,14 +3800,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>FITA DUREX ADESIVA, MATERIAL CELOFANE TRANPARENTE, TIPO MONOFACE, LARGURA 12MM, COMPRIMENTO 50M, INCOLOR, APLICAÇÃO MULTIUSO.</t>
+          <t>PAPEL EMBORRACHADO, COR VERMELHO, MATERIAL BORRACHA EVA, COMPRIMENTO 60 CM, LARGURA 40 CM, ESPESSURA 2 MM, PADRÃO LISO, APLICAÇÃO CONFECÇÃO DEDE PAINEIS</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E109" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>30.16.569</t>
+          <t>30.16.320</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3831,14 +3831,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL PAPELÃO PRENSADO, TIPO AZ, 280 X 350MM, LOMBADA ESTREITA 50MM. COR PRETA.</t>
+          <t>PAPEL CARTOLINA, MATERIAL CELULOSE VEGETAL, GRAMATURA 180 G/M2, COR BRANCA, 660X500 MM</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="E110" t="n">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3852,7 +3852,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>30.16.596</t>
+          <t>30.16.347</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3862,14 +3862,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CADERNO DE MATERIA, 280 X 220 MM, 200 FLS</t>
+          <t>LAPISEIRA, MATERIAL PLÁSTICO, DIÂMETRO CARGA 0.9MM, C/ PRENDEDOR, PONTA E ACIONADOR DE METAL, C/ BORRACHA APAGADORA.</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E111" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>30.16.623</t>
+          <t>30.16.390</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3893,14 +3893,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>PASTA SANFONADA, MATERIAL PLÁSTICO/PVC, COM 12 DIVISÕES, TAMANHO 240MM X 320MM X 30MM, COR FUMÊ, FECHAMENTO COM ELÁSTICO.</t>
+          <t>PAPEL CARTOLINA, MATERIAL CELULOSE VEGETAL, GRAMATURA 180 G/M2, COR VERDE, 660X500MM</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="E112" t="n">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3914,7 +3914,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>30.16.72</t>
+          <t>30.16.537</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3924,14 +3924,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>PAPEL COLOR SET ( AZUL )</t>
+          <t>FITA DUREX ADESIVA, MATERIAL CELOFANE TRANPARENTE, TIPO MONOFACE, LARGURA 12MM, COMPRIMENTO 50M, INCOLOR, APLICAÇÃO MULTIUSO.</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E113" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>30.16.812</t>
+          <t>30.16.569</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3955,14 +3955,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CARIMBO AUTO-ENTINTADO/AUTOMÁTICO, DATADOR, GIRATÓRIO, DIA/MÊS/ANO.</t>
+          <t>PASTA ARQUIVO, MATERIAL PAPELÃO PRENSADO, TIPO AZ, 280 X 350MM, LOMBADA ESTREITA 50MM. COR PRETA.</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>457</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>457</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>30.16.888</t>
+          <t>30.16.596</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3986,14 +3986,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>TNT, GRAMATURA 100 G/M2, COR VERDE, LARGURA 1.40M</t>
+          <t>CADERNO DE MATERIA, 280 X 220 MM, 200 FLS</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E115" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -4007,7 +4007,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>30.16.890</t>
+          <t>30.16.623</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4017,14 +4017,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>TNT Gramatura 100 G/M2 cor LARANJA largura 1,40 mt.</t>
+          <t>PASTA SANFONADA, MATERIAL PLÁSTICO/PVC, COM 12 DIVISÕES, TAMANHO 240MM X 320MM X 30MM, COR FUMÊ, FECHAMENTO COM ELÁSTICO.</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>30.16.903</t>
+          <t>30.16.72</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4048,28 +4048,28 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>PAPEL A4 ALCALINO, TIPO RECICLADO, 297X210MM, 75G/M2 - RESMA (500 FLS)</t>
+          <t>PAPEL COLOR SET ( AZUL )</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="E117" t="n">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>30.16.904</t>
+          <t>30.16.812</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4079,14 +4079,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>PAPEL A4 ALCALINO, COR AMARELA, 297X210MM, GRAMATURA 75G/M2, C/ 100FLS</t>
+          <t>CARIMBO AUTO-ENTINTADO/AUTOMÁTICO, DATADOR, GIRATÓRIO, DIA/MÊS/ANO.</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>30.16.905</t>
+          <t>30.16.888</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4110,14 +4110,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>PAPEL A4 ALCALINO, TIPO COLORIDO, COR ROSA, 297X210MM, 75G/M2, C/ 100FLS</t>
+          <t>TNT, GRAMATURA 100 G/M2, COR VERDE, LARGURA 1.40M</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -4131,7 +4131,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>30.16.906</t>
+          <t>30.16.890</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4141,14 +4141,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>PAPEL A4 ALCALINO, TIPO COLORIDO, COR VERDE, 297X210MM, 75G/M2, C/ 100FLS</t>
+          <t>TNT Gramatura 100 G/M2 cor LARANJA largura 1,40 mt.</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E120" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -4162,7 +4162,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>30.16.96</t>
+          <t>30.16.903</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4172,28 +4172,28 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>PAPEL COLOR SET ( AMARELA)</t>
+          <t>PAPEL A4 ALCALINO, TIPO RECICLADO, 297X210MM, 75G/M2 - RESMA (500 FLS)</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="E121" t="n">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>pedido no suap</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>30.16.994</t>
+          <t>30.16.904</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4203,14 +4203,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>BLOCO DE RECADO, MATERIAL RECICLADO COR NATURAL, LARGURA 38MM, COMPRIMENTO 50MM, AUTO ADESIVO COM 100 FOLHAS</t>
+          <t>PAPEL A4 ALCALINO, COR AMARELA, 297X210MM, GRAMATURA 75G/M2, C/ 100FLS</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="E122" t="n">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4224,24 +4224,24 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>30.19.188</t>
+          <t>30.16.905</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>19 - MATERIAL DE ACONDICIONAMENTO E EMBALAGEM</t>
+          <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SACO DOCUMENTO, MATERIAL PLÁSTICO CRISTALINO, COMPRIMENTO 340 MM, LARGURA 240 MM. (PACOTE C/ 100 UNIDADES)</t>
+          <t>PAPEL A4 ALCALINO, TIPO COLORIDO, COR ROSA, 297X210MM, 75G/M2, C/ 100FLS</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4255,24 +4255,24 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>30.20.52</t>
+          <t>30.16.906</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>20 - MATERIAL DE CAMA, MESA E BANHO</t>
+          <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>TOALHA ROSTO, MATERIAL 90 ALGODÃO E 10 POLIÉSTER , COR AZUL, COMPRIMENTO 80 CM, LARGURA 50 CM.</t>
+          <t>PAPEL A4 ALCALINO, TIPO COLORIDO, COR VERDE, 297X210MM, 75G/M2, C/ 100FLS</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E124" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4286,24 +4286,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>30.21.1089</t>
+          <t>30.16.96</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>21 - MATERIAL DE COPA E COZINHA</t>
+          <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Dispenser para copo plástico, material plástico, cor branca, para copos 180/200 ml, capacidade 100 unidades, característica adicional: Sistema poupa copo por BOTÃO de acionamento.</t>
+          <t>PAPEL COLOR SET ( AMARELA)</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4317,24 +4317,24 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>30.21.1326</t>
+          <t>30.16.994</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>21 - MATERIAL DE COPA E COZINHA</t>
+          <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>ESTOPA, MATERIAL FIO ALGODÃO, APLICAÇÃO POLIMENTO E LIMPEZA ESPECIAL</t>
+          <t>BLOCO DE RECADO, MATERIAL RECICLADO COR NATURAL, LARGURA 38MM, COMPRIMENTO 50MM, AUTO ADESIVO COM 100 FOLHAS</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E126" t="n">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4348,24 +4348,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>30.21.37</t>
+          <t>30.19.188</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>21 - MATERIAL DE COPA E COZINHA</t>
+          <t>19 - MATERIAL DE ACONDICIONAMENTO E EMBALAGEM</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>COPO DESCARTÁVEL 180ML</t>
+          <t>SACO DOCUMENTO, MATERIAL PLÁSTICO CRISTALINO, COMPRIMENTO 340 MM, LARGURA 240 MM. (PACOTE C/ 100 UNIDADES)</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E127" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4379,24 +4379,24 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>30.22.105</t>
+          <t>30.20.52</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>20 - MATERIAL DE CAMA, MESA E BANHO</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>PAPEL TOALHA.</t>
+          <t>TOALHA ROSTO, MATERIAL 90 ALGODÃO E 10 POLIÉSTER , COR AZUL, COMPRIMENTO 80 CM, LARGURA 50 CM.</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E128" t="n">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4410,24 +4410,24 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>30.22.109</t>
+          <t>30.21.1089</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>21 - MATERIAL DE COPA E COZINHA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
+          <t>Dispenser para copo plástico, material plástico, cor branca, para copos 180/200 ml, capacidade 100 unidades, característica adicional: Sistema poupa copo por BOTÃO de acionamento.</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>420</v>
+        <v>2</v>
       </c>
       <c r="E129" t="n">
-        <v>420</v>
+        <v>2</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4441,24 +4441,24 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>30.22.116</t>
+          <t>30.21.1326</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>21 - MATERIAL DE COPA E COZINHA</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>VASSOURA, CERDAS PÊLO SINTÉTICO, CABO MADEIRA.</t>
+          <t>ESTOPA, MATERIAL FIO ALGODÃO, APLICAÇÃO POLIMENTO E LIMPEZA ESPECIAL</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E130" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4472,24 +4472,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>30.22.125</t>
+          <t>30.21.37</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>21 - MATERIAL DE COPA E COZINHA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>FLANELA, TAM 40X60 CM.</t>
+          <t>COPO DESCARTÁVEL 180ML</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E131" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4503,7 +4503,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>30.22.149</t>
+          <t>30.22.105</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4513,14 +4513,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>PANO PARA LIMPEZA, MATERIAL ALGODAO CRU, COMP. 85 CM, LARGURA 60 CM, TIPO SACO - UNIDADE.</t>
+          <t>PAPEL TOALHA.</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E132" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4534,7 +4534,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>30.22.186</t>
+          <t>30.22.109</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4544,14 +4544,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>VASSOURA DE NYLON CABO ROSCÁVEL DE MADEIRA, CEPA C/ 30CM - UNIDADE.</t>
+          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>19</v>
+        <v>420</v>
       </c>
       <c r="E133" t="n">
-        <v>19</v>
+        <v>420</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4565,7 +4565,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>30.22.23</t>
+          <t>30.22.116</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4575,14 +4575,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>PÁ COLETORA DE LIXO</t>
+          <t>VASSOURA, CERDAS PÊLO SINTÉTICO, CABO MADEIRA.</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E134" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4596,7 +4596,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>30.22.294</t>
+          <t>30.22.125</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4606,14 +4606,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ÁLCOOL ETÍLICO, TIPO HIDRATADO, TEOR ALCOÓLICO 70 _ (70ºGL), APRESENTAÇÃO LÍQUIDO, FRASCO C/1.000ML</t>
+          <t>FLANELA, TAM 40X60 CM.</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E135" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4627,7 +4627,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>30.22.305</t>
+          <t>30.22.149</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4637,14 +4637,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
+          <t>PANO PARA LIMPEZA, MATERIAL ALGODAO CRU, COMP. 85 CM, LARGURA 60 CM, TIPO SACO - UNIDADE.</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="E136" t="n">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4658,7 +4658,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>30.22.329</t>
+          <t>30.22.186</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4668,14 +4668,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>VASSOURA CERDAS PALHA</t>
+          <t>VASSOURA DE NYLON CABO ROSCÁVEL DE MADEIRA, CEPA C/ 30CM - UNIDADE.</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E137" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4689,7 +4689,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>30.22.334</t>
+          <t>30.22.23</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4699,14 +4699,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>RODO, CABO ALUMINIO DE 1,50M, SUPORTE 30CM</t>
+          <t>PÁ COLETORA DE LIXO</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E138" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4720,7 +4720,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>30.22.337</t>
+          <t>30.22.294</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4730,14 +4730,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>CESTO PLASTICO DE LIXO, CAPACIDADE 60L, COM TAMPA</t>
+          <t>ÁLCOOL ETÍLICO, TIPO HIDRATADO, TEOR ALCOÓLICO 70 _ (70ºGL), APRESENTAÇÃO LÍQUIDO, FRASCO C/1.000ML</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4751,7 +4751,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>30.22.338</t>
+          <t>30.22.305</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4761,14 +4761,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>LUVA DE BORRACHA PARA LIMPEZA , PUNHO LONGO, TAMANHO MEDIO, COR AMARELA, PALMA ANTIDERRAPANTE, COM FORRO</t>
+          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E140" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4782,7 +4782,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>30.22.345</t>
+          <t>30.22.329</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4792,14 +4792,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>LUVA DE PROTEÇÃO EM BORRACHA, PUNHO LONGOL, TAMANHO GRANDE, COM FORRO</t>
+          <t>VASSOURA CERDAS PALHA</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4813,7 +4813,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>30.22.346</t>
+          <t>30.22.334</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4823,14 +4823,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>PANO DE LIMPEZA (FLANELA), MATERIAL 100% ALGODÃO, LARGURA 60CM, BORDAS LISAS, LIMPEZA EM GERAL</t>
+          <t>RODO, CABO ALUMINIO DE 1,50M, SUPORTE 30CM</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E142" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4844,7 +4844,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>30.22.347</t>
+          <t>30.22.337</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4854,28 +4854,28 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ESCOVA DE LIMPEZA GERAL, MATERIAL PLASTICO, CERDAS EM NYLON, COM SUPORTE</t>
+          <t>CESTO PLASTICO DE LIXO, CAPACIDADE 60L, COM TAMPA</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E143" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F143" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>30.22.347</t>
+          <t>30.22.338</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4885,28 +4885,28 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ESCOVA DE LIMPEZA GERAL, MATERIAL PLASTICO, CERDAS EM NYLON, COM SUPORTE</t>
+          <t>LUVA DE BORRACHA PARA LIMPEZA , PUNHO LONGO, TAMANHO MEDIO, COR AMARELA, PALMA ANTIDERRAPANTE, COM FORRO</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E144" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F144" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>30.22.368</t>
+          <t>30.22.345</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4916,14 +4916,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>BALDE, MATERIAL PLÁSTICO, TAMANHO MÉDIO, ALÇA ARAME GALVANIZADO, CAPACIDADE 10 L, COR PRETA.</t>
+          <t>LUVA DE PROTEÇÃO EM BORRACHA, PUNHO LONGOL, TAMANHO GRANDE, COM FORRO</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E145" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>30.22.369</t>
+          <t>30.22.346</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4947,14 +4947,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>BALDE, MATERIAL PLÁSTICO, TAMANHO MÉDIO, ALÇA ARAME GALVANIZADO, CAPACIDADE 10 L, COR NATURAL, CARACTERÍSTICAS ADICIONAIS PEGADOR EMBUTIDO.</t>
+          <t>PANO DE LIMPEZA (FLANELA), MATERIAL 100% ALGODÃO, LARGURA 60CM, BORDAS LISAS, LIMPEZA EM GERAL</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E146" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4968,7 +4968,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>30.22.374</t>
+          <t>30.22.347</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4978,17 +4978,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>PANO LIMPEZA, 70 VISCOSE E 30 POLIÉSTER.</t>
+          <t>ESCOVA DE LIMPEZA GERAL, MATERIAL PLASTICO, CERDAS EM NYLON, COM SUPORTE</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E147" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>30.22.382</t>
+          <t>30.22.347</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5009,28 +5009,28 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DISPENSER PARA PAPEL TOALHA INTERFOLHADO.</t>
+          <t>ESCOVA DE LIMPEZA GERAL, MATERIAL PLASTICO, CERDAS EM NYLON, COM SUPORTE</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E148" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>pedido no suap</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>30.22.385</t>
+          <t>30.22.368</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5040,14 +5040,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>BALDE, MATERIAL PLÁSTICO, CAPACIDADE 20L, CARACTERÍSTICAS ADICIONAIS COM ALÇA METÁLICA, APLICAÇÃO USO GERAL.</t>
+          <t>BALDE, MATERIAL PLÁSTICO, TAMANHO MÉDIO, ALÇA ARAME GALVANIZADO, CAPACIDADE 10 L, COR PRETA.</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E149" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>30.22.394</t>
+          <t>30.22.369</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5071,14 +5071,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>VASSOURA PELO SINTÉTICO, CABO MADEIRA CEPA 30CM</t>
+          <t>BALDE, MATERIAL PLÁSTICO, TAMANHO MÉDIO, ALÇA ARAME GALVANIZADO, CAPACIDADE 10 L, COR NATURAL, CARACTERÍSTICAS ADICIONAIS PEGADOR EMBUTIDO.</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E150" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -5092,7 +5092,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>30.22.395</t>
+          <t>30.22.374</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5102,28 +5102,28 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CESTO LIXO, MATERIAL PLÁSTICO, CAPACIDADE 100L, COM TAMPA E REFORÇADO.</t>
+          <t>PANO LIMPEZA, 70 VISCOSE E 30 POLIÉSTER.</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E151" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>pedido no suap</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>30.22.437</t>
+          <t>30.22.382</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5133,14 +5133,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>ESPANADOR, MATERIAL PENA DE AVESTRUZ, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 60cm</t>
+          <t>DISPENSER PARA PAPEL TOALHA INTERFOLHADO.</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E152" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>30.22.449</t>
+          <t>30.22.385</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5164,14 +5164,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Vassoura, material cerdas crina, material cabo madeira, material cepa madeira, comprimento cepa 20 cm, comprimento cerdas mínimo 9 cm, características adicionais com cabo colado.</t>
+          <t>BALDE, MATERIAL PLÁSTICO, CAPACIDADE 20L, CARACTERÍSTICAS ADICIONAIS COM ALÇA METÁLICA, APLICAÇÃO USO GERAL.</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E153" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -5185,7 +5185,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>30.22.450</t>
+          <t>30.22.394</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5195,14 +5195,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Vassoura, material cerdas piaçava, material cabo madeira plastificada, material cepa madeira, comprimento cepa 30 cm, comprimento cerdas mínimo 9 cm, caracrísticas adicionais com cabo colado.</t>
+          <t>VASSOURA PELO SINTÉTICO, CABO MADEIRA CEPA 30CM</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="E154" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>30.22.451</t>
+          <t>30.22.395</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5226,14 +5226,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>BALDE, MATERIAL PLÁSTICO, COM ALÇA DE ARAME GALVANIZADO, CAPACIDADE 15L</t>
+          <t>CESTO LIXO, MATERIAL PLÁSTICO, CAPACIDADE 100L, COM TAMPA E REFORÇADO.</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E155" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -5247,7 +5247,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>30.22.453</t>
+          <t>30.22.437</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5257,14 +5257,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ESCOVA LIMPEZA GERAL, MATERIAL CORPO MADEIRA, MATERIAL CERDAS FIBRA NATURAL, COMPRIMENTO 29 CM, APLICAÇÃO VASO SANITÁRIO</t>
+          <t>ESPANADOR, MATERIAL PENA DE AVESTRUZ, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 60cm</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E156" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5278,7 +5278,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>30.22.47</t>
+          <t>30.22.449</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5288,14 +5288,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>VASSOURA PARA VASO SANITÁRIO</t>
+          <t>Vassoura, material cerdas crina, material cabo madeira, material cepa madeira, comprimento cepa 20 cm, comprimento cerdas mínimo 9 cm, características adicionais com cabo colado.</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E157" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -5309,7 +5309,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>30.22.472</t>
+          <t>30.22.450</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5319,14 +5319,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Pá coletora de lixo, material coletor poliestireno, cabo de madeira 80 cm.</t>
+          <t>Vassoura, material cerdas piaçava, material cabo madeira plastificada, material cepa madeira, comprimento cepa 30 cm, comprimento cerdas mínimo 9 cm, caracrísticas adicionais com cabo colado.</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E158" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5340,7 +5340,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>30.22.497</t>
+          <t>30.22.451</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5350,14 +5350,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO LIXO, CAP. 200L - PCT. C/ 100</t>
+          <t>BALDE, MATERIAL PLÁSTICO, COM ALÇA DE ARAME GALVANIZADO, CAPACIDADE 15L</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="E159" t="n">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5371,7 +5371,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>30.22.499</t>
+          <t>30.22.453</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5381,14 +5381,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO LIXO, CAP. 60L - PCT. C/ 100</t>
+          <t>ESCOVA LIMPEZA GERAL, MATERIAL CORPO MADEIRA, MATERIAL CERDAS FIBRA NATURAL, COMPRIMENTO 29 CM, APLICAÇÃO VASO SANITÁRIO</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E160" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -5402,7 +5402,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>30.22.500</t>
+          <t>30.22.47</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5412,14 +5412,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>PÁ COLETORA DE LIXO C/ MOVIMENTO BASCULANTE DA CAIXA DE RECOLHIMENTO</t>
+          <t>VASSOURA PARA VASO SANITÁRIO</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E161" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5433,7 +5433,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>30.22.510</t>
+          <t>30.22.472</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5443,14 +5443,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>COLETOR DE LIXO COM PEDAL E RODAS. CAPACIDADE 240 LITROS, COR AMARELA. PRODUZIDO EM POLIPROPILENO DE ALTA RESISTÊNCIA. MEDIDAS 62X104X62CM.</t>
+          <t>Pá coletora de lixo, material coletor poliestireno, cabo de madeira 80 cm.</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E162" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -5464,7 +5464,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>30.22.520</t>
+          <t>30.22.497</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5474,14 +5474,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>RODO COM CABO. MATERIAL: CABO EM ALUMÍNIO E RODO EM POLIPROPILENO, COM DUAS BORRACHAS. COMPRIMENTO APROXIMADO DO SUPORTE 30 CM, COMPRIMENTO APROXIMADO DO CABO 1,50 M.</t>
+          <t>SACO PLÁSTICO LIXO, CAP. 200L - PCT. C/ 100</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="E163" t="n">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -5495,7 +5495,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>30.22.522</t>
+          <t>30.22.499</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5505,14 +5505,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Flanela, material algodão, cumprimento 40 cm, largura 60 cm, cor amarela, marca: rainha do vale.</t>
+          <t>SACO PLÁSTICO LIXO, CAP. 60L - PCT. C/ 100</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E164" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>30.22.53</t>
+          <t>30.22.500</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5536,14 +5536,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ESPANADOR ELETROSTÁTICO.</t>
+          <t>PÁ COLETORA DE LIXO C/ MOVIMENTO BASCULANTE DA CAIXA DE RECOLHIMENTO</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E165" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -5557,7 +5557,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>30.22.540</t>
+          <t>30.22.510</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5567,14 +5567,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>PÁ COLETORA LIXO, MATERIAL COLETOR ALUMÍNIO ZINCADO, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 80CM</t>
+          <t>COLETOR DE LIXO COM PEDAL E RODAS. CAPACIDADE 240 LITROS, COR AMARELA. PRODUZIDO EM POLIPROPILENO DE ALTA RESISTÊNCIA. MEDIDAS 62X104X62CM.</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E166" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -5588,7 +5588,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>30.22.562</t>
+          <t>30.22.520</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5598,14 +5598,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ESCOVA DE PIA.</t>
+          <t>RODO COM CABO. MATERIAL: CABO EM ALUMÍNIO E RODO EM POLIPROPILENO, COM DUAS BORRACHAS. COMPRIMENTO APROXIMADO DO SUPORTE 30 CM, COMPRIMENTO APROXIMADO DO CABO 1,50 M.</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E167" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -5619,7 +5619,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>30.22.586</t>
+          <t>30.22.522</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5629,14 +5629,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>LIXEIRA PLÁSTICA COM PEDAL PLÁSTICO E TAMPA, 67x41x47, CAPACIDADE 72 LITROS, BRANCA, ALÇAS LATERAIS</t>
+          <t>Flanela, material algodão, cumprimento 40 cm, largura 60 cm, cor amarela, marca: rainha do vale.</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E168" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -5650,7 +5650,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>30.22.589</t>
+          <t>30.22.53</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5660,14 +5660,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>PANO DE LIMPEZA CHÃO, 100% ALGODÃO, COR BRANCA, MEDIDAS: 70 X 50 CM.</t>
+          <t>ESPANADOR ELETROSTÁTICO.</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="E169" t="n">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -5681,7 +5681,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>30.22.590</t>
+          <t>30.22.540</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5691,14 +5691,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>PANO DE PRATO, ALGODÃO, MEDIDAS 68 X 40 CM.</t>
+          <t>PÁ COLETORA LIXO, MATERIAL COLETOR ALUMÍNIO ZINCADO, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 80CM</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E170" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>30.22.592</t>
+          <t>30.22.562</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5722,28 +5722,28 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>BALDE GRANDE, 50 LITROS, MATERIAL PLÁSTICO</t>
+          <t>ESCOVA DE PIA.</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E171" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>30.22.610</t>
+          <t>30.22.564</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5753,14 +5753,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DISPENSER PARA PAPEL HIGIENICO COM CAPACIDADE DE ATÉ 500M</t>
+          <t>DISPENSER HIGIENIZADOR. CAP: 800ML. COR: BRANCO</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E172" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -5774,7 +5774,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>30.22.625</t>
+          <t>30.22.586</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5784,28 +5784,28 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Fio de nylon perfil quadrado</t>
+          <t>LIXEIRA PLÁSTICA COM PEDAL PLÁSTICO E TAMPA, 67x41x47, CAPACIDADE 72 LITROS, BRANCA, ALÇAS LATERAIS</t>
         </is>
       </c>
       <c r="D173" t="n">
         <v>10</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F173" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>30.22.627</t>
+          <t>30.22.589</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5815,14 +5815,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Lixeira plástica retangular com pedal plástico e tampa, cor branca, capacidade 100L, 920 x 570 x 460 m</t>
+          <t>PANO DE LIMPEZA CHÃO, 100% ALGODÃO, COR BRANCA, MEDIDAS: 70 X 50 CM.</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="E174" t="n">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>30.22.632</t>
+          <t>30.22.590</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5846,14 +5846,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Detergente: composição: tensoativos, aniônicos, coadjuvante, preservantes, componente ativo linear alquibenzeno sulfonato de sódio. Aplicação: remoção de gorduras de louças, talheres e panelas. Aroma: neutro. Embalagem de 500 ml.</t>
+          <t>PANO DE PRATO, ALGODÃO, MEDIDAS 68 X 40 CM.</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E175" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -5867,7 +5867,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>30.22.638</t>
+          <t>30.22.592</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5877,28 +5877,28 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>BALDE CAP. 10L COM ALÇA DE FERRO.</t>
+          <t>BALDE GRANDE, 50 LITROS, MATERIAL PLÁSTICO</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E176" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>pedido no suap</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>30.22.643</t>
+          <t>30.22.597</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5908,28 +5908,28 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>PAPEL HIGIÊNICO, MATERIAL CELULOSE VIRGEM, COMPRIMENTO 300 M, LARGURA 10 CM, FOLHAS SIMPLES, COR BRANCA.</t>
+          <t>LIXEIRA PLÁSTICA RETANGULAR COM PEDAL PLÁSTICO E TAMPA, CAPACIDADE 60 LITROS.</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>617</v>
+        <v>12</v>
       </c>
       <c r="E177" t="n">
-        <v>647</v>
+        <v>12</v>
       </c>
       <c r="F177" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>30.22.673</t>
+          <t>30.22.610</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5939,28 +5939,28 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>TOALHA DE PAPEL, MATERIAL PAPEL, TIPO:2 DOBRAS</t>
+          <t>DISPENSER PARA PAPEL HIGIENICO COM CAPACIDADE DE ATÉ 500M</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="E178" t="n">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="F178" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>30.22.681</t>
+          <t>30.22.625</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5970,28 +5970,28 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>PANO LIMPEZA, MATERIAL 100 ALGODÃO, COMPRIMENTO 60 CM, LARGURA 45 CM, CARACTERÍSTICAS ADICIONAIS ALVEJADO, APLICAÇÃO LIMPEZA GERAL.</t>
+          <t>Fio de nylon perfil quadrado</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E179" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>pedido no suap</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>30.22.685</t>
+          <t>30.22.627</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6001,14 +6001,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>LIXEIRA PLÁSTICA REDONDA SEM TAMPA PARA RECICLAGEM 13 LITROS, CINZA, COM SIMBO DE RECICLAGEM E GRAVADO COM A PALAVRA "NÃO RECICLÁVEL"</t>
+          <t>Lixeira plástica retangular com pedal plástico e tampa, cor branca, capacidade 100L, 920 x 570 x 460 m</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E180" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -6022,7 +6022,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>30.22.740</t>
+          <t>30.22.632</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6032,14 +6032,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>LIXEIRA plástica redonda sem tampa para reciclagem 13 litros, cinza, com simbolo de reciclagem e gravado com a palavra "não reciclável"</t>
+          <t>Detergente: composição: tensoativos, aniônicos, coadjuvante, preservantes, componente ativo linear alquibenzeno sulfonato de sódio. Aplicação: remoção de gorduras de louças, talheres e panelas. Aroma: neutro. Embalagem de 500 ml.</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E181" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -6053,7 +6053,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>30.22.741</t>
+          <t>30.22.638</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6063,14 +6063,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>LIXEIRA, material aço, capacidade 20 L, tipo com tampa e pedal acoplados, características adicionais cilíndrica com cesto interno removível, aplicação coleta de lixo.</t>
+          <t>BALDE CAP. 10L COM ALÇA DE FERRO.</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E182" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -6084,7 +6084,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>30.22.84</t>
+          <t>30.22.643</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6094,28 +6094,28 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>JOGO DE TAPETES PARA BANHEIRO, C/3 PEÇAS: 1 TAMPA 46 X 46;1 VASO45 X 48 E 1 PIA 45 X 70 CM, 100% POLIPROPILENO.</t>
+          <t>PAPEL HIGIÊNICO, MATERIAL CELULOSE VIRGEM, COMPRIMENTO 300 M, LARGURA 10 CM, FOLHAS SIMPLES, COR BRANCA.</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>10</v>
+        <v>617</v>
       </c>
       <c r="E183" t="n">
-        <v>10</v>
+        <v>647</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>30.22.91</t>
+          <t>30.22.673</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6125,45 +6125,45 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>PULVERIZADOR / BORRIFADOR, 500 ML, MATERIAL PLÁSTICO TRANSPARENTE, TIPO MANUAL COM GATILHO.</t>
+          <t>TOALHA DE PAPEL, MATERIAL PAPEL, TIPO:2 DOBRAS</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="E184" t="n">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>30.24.1118</t>
+          <t>30.22.677</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>TINTA DEMARCAÇÃO SINALIZAÇÃO, BASE ESMALTE SINTÉTICO, AMARELA, 18 L.</t>
+          <t>COLETOR DE FIBRA DE VIDRO, PILHAS E BATERIAS.</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E185" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -6177,24 +6177,24 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>30.24.1206</t>
+          <t>30.22.681</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>REGISTRO DE ESFERA DE 20 mm PVC</t>
+          <t>PANO LIMPEZA, MATERIAL 100 ALGODÃO, COMPRIMENTO 60 CM, LARGURA 45 CM, CARACTERÍSTICAS ADICIONAIS ALVEJADO, APLICAÇÃO LIMPEZA GERAL.</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E186" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -6208,24 +6208,24 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>30.24.1458</t>
+          <t>30.22.685</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Tinta em spray na cor branca</t>
+          <t>LIXEIRA PLÁSTICA REDONDA SEM TAMPA PARA RECICLAGEM 13 LITROS, CINZA, COM SIMBO DE RECICLAGEM E GRAVADO COM A PALAVRA "NÃO RECICLÁVEL"</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E187" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -6239,24 +6239,24 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>30.24.1459</t>
+          <t>30.22.740</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Tinta em spray na cor preta</t>
+          <t>LIXEIRA plástica redonda sem tampa para reciclagem 13 litros, cinza, com simbolo de reciclagem e gravado com a palavra "não reciclável"</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E188" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -6270,24 +6270,24 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>30.24.1460</t>
+          <t>30.22.741</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Tinta em spray na cor vermelha</t>
+          <t>LIXEIRA, material aço, capacidade 20 L, tipo com tampa e pedal acoplados, características adicionais cilíndrica com cesto interno removível, aplicação coleta de lixo.</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E189" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -6301,24 +6301,24 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>30.24.1816</t>
+          <t>30.22.84</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
+          <t>JOGO DE TAPETES PARA BANHEIRO, C/3 PEÇAS: 1 TAMPA 46 X 46;1 VASO45 X 48 E 1 PIA 45 X 70 CM, 100% POLIPROPILENO.</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -6332,24 +6332,24 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>30.24.1953</t>
+          <t>30.22.91</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>CAP SOLDÁVEL 32MM</t>
+          <t>PULVERIZADOR / BORRIFADOR, 500 ML, MATERIAL PLÁSTICO TRANSPARENTE, TIPO MANUAL COM GATILHO.</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E191" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -6363,7 +6363,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>30.24.2099</t>
+          <t>30.24.1118</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6373,14 +6373,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>TINTA DEMARCAÇÃO SINALIZAÇÃO</t>
+          <t>TINTA DEMARCAÇÃO SINALIZAÇÃO, BASE ESMALTE SINTÉTICO, AMARELA, 18 L.</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E192" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -6394,7 +6394,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>30.24.2154</t>
+          <t>30.24.1206</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>TORNEIRA DE LAVATÓRIO.</t>
+          <t>REGISTRO DE ESFERA DE 20 mm PVC</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -6425,7 +6425,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>30.24.2294</t>
+          <t>30.24.1458</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6435,14 +6435,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Engate rápido para mangueira 1/2</t>
+          <t>Tinta em spray na cor branca</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -6456,7 +6456,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>30.24.2441</t>
+          <t>30.24.1459</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6466,14 +6466,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>ROLO DE LÃ DE CARNEIRO DE 9 CM</t>
+          <t>Tinta em spray na cor preta</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E195" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -6487,7 +6487,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>30.24.2471</t>
+          <t>30.24.1460</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Microaspersor Rotativo 360º</t>
+          <t>Tinta em spray na cor vermelha</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -6518,7 +6518,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>30.24.2600</t>
+          <t>30.24.1816</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6528,14 +6528,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>CAIXA SIFONADA. caixa sifonada, 100mm x 140mm x 50 mm, material pvc cor branca</t>
+          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -6549,7 +6549,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>30.24.2607</t>
+          <t>30.24.1953</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6559,14 +6559,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC - CLORETO DE POLIVINILA, TIPO LUVA DE REDUÇÃO, TIPO FIXAÇÃO SOLDÁVEL. 20mm x 1/2''</t>
+          <t>CAP SOLDÁVEL 32MM</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E198" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -6580,7 +6580,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>30.24.2746</t>
+          <t>30.24.2099</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>BUCHA PARAFUSO, MATERIAL NÁILON, COMPRIMENTO 3 CM, ESPESSURA 6 MM.</t>
+          <t>TINTA DEMARCAÇÃO SINALIZAÇÃO</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="E199" t="n">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -6611,7 +6611,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>30.24.3098</t>
+          <t>30.24.2154</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Registro de Esfera, 50mm, soldável, Irrigação.</t>
+          <t>TORNEIRA DE LAVATÓRIO.</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -6642,7 +6642,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>30.24.3131</t>
+          <t>30.24.2294</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6652,28 +6652,28 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Fita Isolante, 0,19 x 20m.</t>
+          <t>Engate rápido para mangueira 1/2</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E201" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>30.24.3217</t>
+          <t>30.24.2441</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -6683,14 +6683,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>TORNEIRA 1/2 POL, CORPO METAL CROMADO, TIPO LONGA, ACABAMENTO SUPERFICIAL CROMADO, CARACTERÍSTICAS ADICIONAIS COM TEMPORIZADOR, APLICAÇÃO LAVATÓRIO.</t>
+          <t>ROLO DE LÃ DE CARNEIRO DE 9 CM</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E202" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -6704,7 +6704,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>30.24.3275</t>
+          <t>30.24.2471</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -6714,14 +6714,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>GRAMPO, MATERIAL AcO POLIDO, APLICAcao CERCA ARAME, TAMANHO 1 X 9</t>
+          <t>Microaspersor Rotativo 360º</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -6735,7 +6735,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>30.24.3276</t>
+          <t>30.24.2600</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>BUCHA PARAFUSO, MATERIAL NAILON, COMPRIMENTO 5 CM, ESPESSURA 10 MM</t>
+          <t>CAIXA SIFONADA. caixa sifonada, 100mm x 140mm x 50 mm, material pvc cor branca</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -6766,7 +6766,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>30.24.3277</t>
+          <t>30.24.2607</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6776,14 +6776,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>BUCHA PARAFUSO, MATERIAL NAILON, COMPRIMENTO 6,50 CM, ESPESSURA 12 MM</t>
+          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC - CLORETO DE POLIVINILA, TIPO LUVA DE REDUÇÃO, TIPO FIXAÇÃO SOLDÁVEL. 20mm x 1/2''</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E205" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -6797,7 +6797,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>30.24.3279</t>
+          <t>30.24.2746</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>BUCHA PARAFUSO, MATERIAL NAILON, COMPRIMENTO 4 CM, ESPESSURA 8 MM</t>
+          <t>BUCHA PARAFUSO, MATERIAL NÁILON, COMPRIMENTO 3 CM, ESPESSURA 6 MM.</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -6828,7 +6828,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>30.24.3280</t>
+          <t>30.24.275</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6838,14 +6838,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Parafuso de Fenda Phillips Cabeça Chata com Bucha Universal de 12mm</t>
+          <t>TAMPA PARA BACIO SANITÁRIO</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E207" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -6859,7 +6859,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>30.24.3281</t>
+          <t>30.24.3098</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6869,14 +6869,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Parafuso de Fenda Phillips Cabeça Chata com Bucha Universal de 10mm</t>
+          <t>Registro de Esfera, 50mm, soldável, Irrigação.</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E208" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -6890,7 +6890,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>30.24.3283</t>
+          <t>30.24.3131</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6900,28 +6900,28 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Parafuso de Fenda Phillips Cabeça Chata com Bucha Universal de 06mm</t>
+          <t>Fita Isolante, 0,19 x 20m.</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="E209" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>pedido no suap</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>30.24.3291</t>
+          <t>30.24.3217</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6931,14 +6931,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>TINTA DEMARCAÇÃO SINALIZAÇÃO, BASE RESINA ACRÍLICA, TIPO BRILHANTE, COR AMARELA caracteristicas adicionais resistente a abrasao e intemperies metodo de aplicacao rolo, pincel e pistola aplicacao pintura de asfalto e sinalisacao de rodovias</t>
+          <t>TORNEIRA 1/2 POL, CORPO METAL CROMADO, TIPO LONGA, ACABAMENTO SUPERFICIAL CROMADO, CARACTERÍSTICAS ADICIONAIS COM TEMPORIZADOR, APLICAÇÃO LAVATÓRIO.</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E210" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -6952,7 +6952,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>30.24.3300</t>
+          <t>30.24.3275</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -6962,14 +6962,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Tinta Acrílica, interiores e exteriores, cor Branco Gelo, latão com 18 litros</t>
+          <t>GRAMPO, MATERIAL AcO POLIDO, APLICAcao CERCA ARAME, TAMANHO 1 X 9</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -6983,7 +6983,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>30.24.3318</t>
+          <t>30.24.3276</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -6993,14 +6993,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>VÁLVULA DESCARGA, MATERIAL METAL, TRATAMENTO SUPERFICIAL CROMADO, BITOLA 1/2 POL, APLICAÇÃO MICTÓRIO, TIPO ROSCÁVEL</t>
+          <t>BUCHA PARAFUSO, MATERIAL NAILON, COMPRIMENTO 5 CM, ESPESSURA 10 MM</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E212" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -7014,7 +7014,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>30.24.3324</t>
+          <t>30.24.3277</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -7024,14 +7024,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC- CLORETO DE POLIVINILA, TIPO LUVA, TIPO FIXAÇÃO SOLDÁVEL, CARACTERÍSTICAS ADICIONAIS COM BUCHA DE LATÃO, APLICAÇÃO INSTALAÇÕES PREDIAIS ÁGUA FRIA, BITOLA 20 MM X 1/2"</t>
+          <t>BUCHA PARAFUSO, MATERIAL NAILON, COMPRIMENTO 6,50 CM, ESPESSURA 12 MM</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E213" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -7045,7 +7045,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>30.24.3325</t>
+          <t>30.24.3279</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -7055,14 +7055,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC-CLORETO DE POLIVINILA, TIPO LUVA, TIPO FIXAÇÃO SOLDÁVEL, CARACTERÍSTICAS ADICIONAIS COM BUCHA DE LATÃO, APLICAÇÃO INSTALAÇÕES PREDIAIS ÁGUA FRIA, BITOLA 25 MM X 3/4"</t>
+          <t>BUCHA PARAFUSO, MATERIAL NAILON, COMPRIMENTO 4 CM, ESPESSURA 8 MM</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E214" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7076,7 +7076,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>30.24.3354</t>
+          <t>30.24.3280</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -7086,14 +7086,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Tinta para pintura predial, composição: água/pva lavável. 18L</t>
+          <t>Parafuso de Fenda Phillips Cabeça Chata com Bucha Universal de 12mm</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E215" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -7107,7 +7107,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>30.24.3463</t>
+          <t>30.24.3281</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -7117,14 +7117,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>VÁLVULA PARA PIA, EM METAL CROMADO, 3 1/2 X 1 1/2.</t>
+          <t>Parafuso de Fenda Phillips Cabeça Chata com Bucha Universal de 10mm</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E216" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -7138,7 +7138,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>30.24.3476</t>
+          <t>30.24.3283</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -7148,14 +7148,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>COLA PARA PISO</t>
+          <t>Parafuso de Fenda Phillips Cabeça Chata com Bucha Universal de 06mm</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="E217" t="n">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -7169,7 +7169,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>30.24.3480</t>
+          <t>30.24.3291</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -7179,14 +7179,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC CLORETO DE POLIVINILA, TIPO JOELHO, TIPO FIXAÇÃO SOLDÁVEL, BITOLA 20 MM</t>
+          <t>TINTA DEMARCAÇÃO SINALIZAÇÃO, BASE RESINA ACRÍLICA, TIPO BRILHANTE, COR AMARELA caracteristicas adicionais resistente a abrasao e intemperies metodo de aplicacao rolo, pincel e pistola aplicacao pintura de asfalto e sinalisacao de rodovias</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E218" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -7200,7 +7200,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>30.24.3481</t>
+          <t>30.24.3292</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -7210,14 +7210,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC- CLORETO DE POLIVINILA, TIPO LUVA, TIPO FIXAÇÃO SOLDÁVEL, APLICAÇÃO INSTALAÇÕES PREDIAIS ÁGUA FRIA, BITOLA 20 MM</t>
+          <t>CANALETA, MATERIAL PVC- CLORETO DE POLIVINILA, TIPO COM TAMPA LISA, COR BEGE,CARACTERÍSTICAS ADICIONAIS COM TAMPA FECHADA SEMDIVISÃO, FECHAMENTO RÍGIDO P, APLICAÇÃO INSTALAÇÃOELÉTRICA, DIMENSÕES 20 X 10 X 2000 MM</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E219" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -7231,7 +7231,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>30.24.3482</t>
+          <t>30.24.3300</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -7241,14 +7241,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC- CLORETO DE POLIVINILA, TIPO LUVA, TIPO FIXAÇÃO SOLDÁVEL, APLICAÇÃO REDE HIDRÁULICA E ESGOTO, BITOLA 25</t>
+          <t>Tinta Acrílica, interiores e exteriores, cor Branco Gelo, latão com 18 litros</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E220" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -7262,7 +7262,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>30.24.3483</t>
+          <t>30.24.3318</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -7272,14 +7272,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>TOMADA, MODELO 2P+T, CORRENTE NOMINAL 20 A, TENSÃO NOMINAL 250 V, NORMAS TÉCNICAS NBR 14136, APLICAÇÃO INSTALAÇÕES EM CANALETAS DO SISTEMA 'X', REFERÊNCIA 6750 061, PADRÃO RASILEIRO</t>
+          <t>VÁLVULA DESCARGA, MATERIAL METAL, TRATAMENTO SUPERFICIAL CROMADO, BITOLA 1/2 POL, APLICAÇÃO MICTÓRIO, TIPO ROSCÁVEL</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E221" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -7293,7 +7293,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>30.24.3484</t>
+          <t>30.24.3324</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7303,14 +7303,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC- CLORETO DE POLIVINILA, TIPO CAP, TIPO FIXAÇÃO SOLDÁVEL, BITOLA 40 MM</t>
+          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC- CLORETO DE POLIVINILA, TIPO LUVA, TIPO FIXAÇÃO SOLDÁVEL, CARACTERÍSTICAS ADICIONAIS COM BUCHA DE LATÃO, APLICAÇÃO INSTALAÇÕES PREDIAIS ÁGUA FRIA, BITOLA 20 MM X 1/2"</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E222" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>30.24.3486</t>
+          <t>30.24.3325</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -7334,14 +7334,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC- CLORETO DE POLIVINILA, TIPO TÊ 90°, TIPO FIXAÇÃO SOLDÁVEL, APLICAÇÃO INSTALAÇÕES PREDIAIS ÁGUA FRIA, BITOLA 25 MM</t>
+          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC-CLORETO DE POLIVINILA, TIPO LUVA, TIPO FIXAÇÃO SOLDÁVEL, CARACTERÍSTICAS ADICIONAIS COM BUCHA DE LATÃO, APLICAÇÃO INSTALAÇÕES PREDIAIS ÁGUA FRIA, BITOLA 25 MM X 3/4"</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -7355,7 +7355,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>30.24.806</t>
+          <t>30.24.3354</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -7365,14 +7365,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>DESENTUPIDOR P/VASO SANITÁRIO</t>
+          <t>Tinta para pintura predial, composição: água/pva lavável. 18L</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E224" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F224" t="n">
         <v>0</v>
@@ -7386,24 +7386,24 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>30.26.1246</t>
+          <t>30.24.3463</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>BÓIA ELÉTRICA COM SENSOR DE 20A</t>
+          <t>VÁLVULA PARA PIA, EM METAL CROMADO, 3 1/2 X 1 1/2.</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F225" t="n">
         <v>0</v>
@@ -7417,24 +7417,24 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>30.26.194</t>
+          <t>30.24.3476</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>CABO ELÉTRICO - 2,5 MM², COR PRETO , FLEXIVEL.</t>
+          <t>COLA PARA PISO</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E226" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
@@ -7448,24 +7448,24 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>30.26.3101</t>
+          <t>30.24.3480</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>INTERRUPTOR, TIPO EMBUTIR, QUANTIDADE SEÇÕES 2 UN, CORRENTE 10 Ah, TENSÃO 220 V</t>
+          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC CLORETO DE POLIVINILA, TIPO JOELHO, TIPO FIXAÇÃO SOLDÁVEL, BITOLA 20 MM</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E227" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -7479,17 +7479,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>30.26.3102</t>
+          <t>30.24.3481</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>TOMADA, MODELO PLUGUE, TIPO FÊMEA, FORMATO CONTATO PINO CILÍNDRICO, CORRENTE NOMINAL 20 A, TENSÃO NOMINAL 250 V, NÚMERO PÓLOS 2 P + T</t>
+          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC- CLORETO DE POLIVINILA, TIPO LUVA, TIPO FIXAÇÃO SOLDÁVEL, APLICAÇÃO INSTALAÇÕES PREDIAIS ÁGUA FRIA, BITOLA 20 MM</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -7510,24 +7510,24 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>30.26.3103</t>
+          <t>30.24.3482</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>CHAVE MAGNÉTICA, TIPO PARTIDA DIRETA, TENSÃO NOMINAL 220 V, CORRENTE NOMINAL 10 A</t>
+          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC- CLORETO DE POLIVINILA, TIPO LUVA, TIPO FIXAÇÃO SOLDÁVEL, APLICAÇÃO REDE HIDRÁULICA E ESGOTO, BITOLA 25</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E229" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -7541,24 +7541,24 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>30.26.3151</t>
+          <t>30.24.3483</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>CONTATOR, TENSÃO TRABALHO 220 V, CORRENTE TRABALHO 45 A, FREQUÊNCIA 60 HZ, APLICAÇÃO ACIONAMENTO MOTOR ELÉTRICO, NÚMERO E TIPO DE CONTATOS PRINCIPAIS 2NA + 2NF</t>
+          <t>TOMADA, MODELO 2P+T, CORRENTE NOMINAL 20 A, TENSÃO NOMINAL 250 V, NORMAS TÉCNICAS NBR 14136, APLICAÇÃO INSTALAÇÕES EM CANALETAS DO SISTEMA 'X', REFERÊNCIA 6750 061, PADRÃO RASILEIRO</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -7572,24 +7572,24 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>30.26.3179</t>
+          <t>30.24.3484</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>CABO ELÉTRICO 2,5 MM , COR VERDE, FLEXIVEL</t>
+          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC- CLORETO DE POLIVINILA, TIPO CAP, TIPO FIXAÇÃO SOLDÁVEL, BITOLA 40 MM</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -7603,24 +7603,24 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>30.26.3181</t>
+          <t>30.24.3486</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>CABO ELÉTRICO - 2,5 MM - COR AZUL, FLEXÍVEL</t>
+          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC- CLORETO DE POLIVINILA, TIPO TÊ 90°, TIPO FIXAÇÃO SOLDÁVEL, APLICAÇÃO INSTALAÇÕES PREDIAIS ÁGUA FRIA, BITOLA 25 MM</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -7634,24 +7634,24 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>30.28.333</t>
+          <t>30.24.3488</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Luva de borracha, aplicação limpeza, tamanho M.</t>
+          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 1 M, ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA, EMCABEÇADA , MATERIAL MADEIRA, ALTURA 2,10 M</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="E233" t="n">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -7665,24 +7665,24 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>30.28.349</t>
+          <t>30.24.806</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>LUVA BORRACHA, material látex natural, tamanho MÉDIO, característica adicionais resistentes produtos químicos, material forro algodão, tamanho cano longo.</t>
+          <t>DESENTUPIDOR P/VASO SANITÁRIO</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="E234" t="n">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
@@ -7696,24 +7696,24 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>30.28.372</t>
+          <t>30.26.1246</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>LUVA DE PROTEÇÃO, MATERIAL LATEX, APLICAÇÃO HOSPITALAR, GRANDE, AMARELA</t>
+          <t>BÓIA ELÉTRICA COM SENSOR DE 20A</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E235" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F235" t="n">
         <v>0</v>
@@ -7727,24 +7727,24 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>30.28.492</t>
+          <t>30.26.1410</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>1- CADEADO 50mm com 3 chaves, material: Latão, Largura: 4,3cm, Altura: 4cm, Comprimento: 2cm.</t>
+          <t>30.26.1409 CABO ELETRICO FLEXIVEL, MATERIAL COBRE ELETROLITICO, REVESTIMENTO PVC. TEMPERATURA 70ºC. TENSÃO ISOLAMENTO 750 V, COR VERDE, SEÇÃO NOMINAL CONDUTOR 4MM2, BITOLA CONDUTOR 4 MM2, QUANTIDADES FIO 1</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E236" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -7758,24 +7758,24 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>30.28.493</t>
+          <t>30.26.194</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>CADEADO 38mm com 3 chaves, Material: Latão, Largura: 3,3cm, Altura: 3,3cm, Comprimento: 1,2cm.</t>
+          <t>CABO ELÉTRICO - 2,5 MM², COR PRETO , FLEXIVEL.</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -7789,24 +7789,24 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>30.36.481</t>
+          <t>30.26.3101</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL PVC, TIPO AUTO-ZEBRADA, 5cm x 30m x 0,15mm, PRETA E AMARELA, PARA DEMARCAÇÃO E SINALIZAÇÃO.</t>
+          <t>INTERRUPTOR, TIPO EMBUTIR, QUANTIDADE SEÇÕES 2 UN, CORRENTE 10 Ah, TENSÃO 220 V</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E238" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -7820,24 +7820,24 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>30.36.482</t>
+          <t>30.26.3102</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>FILME PLÁSTICO, TIPO ESTIRÁVEL, MATERIAL PVC, LARGURA 10cm, APLICAÇÃO EMBALAR VIDRARIAS, COMPRIMENTO 38 METROS</t>
+          <t>TOMADA, MODELO PLUGUE, TIPO FÊMEA, FORMATO CONTATO PINO CILÍNDRICO, CORRENTE NOMINAL 20 A, TENSÃO NOMINAL 250 V, NÚMERO PÓLOS 2 P + T</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E239" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
@@ -7851,17 +7851,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>30.36.526</t>
+          <t>30.26.3103</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>TOUCA HOSPITALAR, MATERIAL NÃO TECIDO 100 POLIPROPILENO, COM ELÁSTICO, SEM COR, GRAMATURA 60 G/M2, TAMANHO ÚNICO, USO DESCARTÁVEL, CARACTERÍSTICA ADICIONAL 01 HIPOALERGÊNICA, ATÓXICA, INODORA, UNISSEX.</t>
+          <t>CHAVE MAGNÉTICA, TIPO PARTIDA DIRETA, TENSÃO NOMINAL 220 V, CORRENTE NOMINAL 10 A</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -7882,17 +7882,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>30.36.527</t>
+          <t>30.26.3151</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>LUVA DE PROTEÇÃO, LATÉX, USO HOSPITALAR, GRANDE, AMARELA, PALMA COM RANHURAS, NÃO ESTERILIZADA, SEM PÓ, COMPRIMENTO CANO 150 MM, TIPO AMBIDESTRA, MODELO HIPOALÉRGICA, FINALIDADE EPI, REUTILIZÁVEL, LISA.</t>
+          <t>CONTATOR, TENSÃO TRABALHO 220 V, CORRENTE TRABALHO 45 A, FREQUÊNCIA 60 HZ, APLICAÇÃO ACIONAMENTO MOTOR ELÉTRICO, NÚMERO E TIPO DE CONTATOS PRINCIPAIS 2NA + 2NF</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -7913,24 +7913,24 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>30.36.528</t>
+          <t>30.26.3179</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>LIXEIRA, MATERIAL POLIPROPILENO, CAPACIDADE 15 L, TIPO QUADRADA, COR AZUL, CARACTERÍSTICAS ADICIONAIS COM TAMPA E PEDAL, APLICAÇÃO COLETA SELETIVA, IMPRESSÃO COM SÍMBOLO.</t>
+          <t>CABO ELÉTRICO 2,5 MM , COR VERDE, FLEXIVEL</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -7944,24 +7944,24 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>30.36.529</t>
+          <t>30.26.3180</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>PLACA IDENTIFICAÇÃO, MATERIAL PVC- CLORETO DE POLIVINILA, ALTURA 17 CM, APLICAÇÃO SINALIZAÇÃO AMBIENTE, LARGURA 15 CM.</t>
+          <t>CABO ELÉTRICO - 4,2 MM, COR PRETO, FLEXÍVEL</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -7975,24 +7975,24 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>30.36.530</t>
+          <t>30.26.3181</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, LARGURA 20 MM, COMPRIMENTO 30 M, COR VERMELHA.</t>
+          <t>CABO ELÉTRICO - 2,5 MM - COR AZUL, FLEXÍVEL</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F244" t="n">
         <v>0</v>
@@ -8006,24 +8006,24 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>30.36.534</t>
+          <t>30.26.3182</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>TAPETE, MATERIAL SUPERFÍCIE VINIL, MATERIAL BASE PVC- CLORETO DE POLIVINILA, TIPO BORRACHA ANTIDERRAPANTE, LARGURA 38 CM, COR BÁSICA PRETA, CARACTERÍSTICAS ADICIONAIS SANITIZANTE, ESPESSURA 10 MM, COMPRIMENTO 1 58 CM.</t>
+          <t>CABO ELÉTRICO - 4,2 MM, COR AMARELA, FLEXÍVEL</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -8037,24 +8037,24 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>30.36.541</t>
+          <t>30.26.3183</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Saco plástico para lixo hospitalar, 30l, branco.</t>
+          <t>CABO ELÉTRICO - 6 MM, COR PRETO, FLEXÍVEL</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
@@ -8068,24 +8068,24 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>30.42.1122</t>
+          <t>30.28.333</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>42 - FERRAMENTAS</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Regador de plantas 10 L</t>
+          <t>Luva de borracha, aplicação limpeza, tamanho M.</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="E247" t="n">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="F247" t="n">
         <v>0</v>
@@ -8099,24 +8099,24 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>30.42.12</t>
+          <t>30.28.349</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>42 - FERRAMENTAS</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>BROCA DE VIDIA 12MM</t>
+          <t>LUVA BORRACHA, material látex natural, tamanho MÉDIO, característica adicionais resistentes produtos químicos, material forro algodão, tamanho cano longo.</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="E248" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
@@ -8130,24 +8130,24 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>30.42.213</t>
+          <t>30.28.372</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>42 - FERRAMENTAS</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>BROCA DE AÇO RÁPIDO 10MM.</t>
+          <t>LUVA DE PROTEÇÃO, MATERIAL LATEX, APLICAÇÃO HOSPITALAR, GRANDE, AMARELA</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E249" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F249" t="n">
         <v>0</v>
@@ -8161,24 +8161,24 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>30.42.789</t>
+          <t>30.28.492</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>42 - FERRAMENTAS</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>BROCA DE AÇO RÁPIDO 12 MM</t>
+          <t>1- CADEADO 50mm com 3 chaves, material: Latão, Largura: 4,3cm, Altura: 4cm, Comprimento: 2cm.</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E250" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
@@ -8192,24 +8192,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>30.42.790</t>
+          <t>30.28.493</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>42 - FERRAMENTAS</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>BROCA AÇO RÁPIDO DE 8 MM</t>
+          <t>CADEADO 38mm com 3 chaves, Material: Latão, Largura: 3,3cm, Altura: 3,3cm, Comprimento: 1,2cm.</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E251" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
@@ -8223,29 +8223,463 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
+          <t>30.36.481</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>36 - MATERIAL HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>FITA ADESIVA, MATERIAL PVC, TIPO AUTO-ZEBRADA, 5cm x 30m x 0,15mm, PRETA E AMARELA, PARA DEMARCAÇÃO E SINALIZAÇÃO.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>28</v>
+      </c>
+      <c r="E252" t="n">
+        <v>28</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>30.36.482</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>36 - MATERIAL HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>FILME PLÁSTICO, TIPO ESTIRÁVEL, MATERIAL PVC, LARGURA 10cm, APLICAÇÃO EMBALAR VIDRARIAS, COMPRIMENTO 38 METROS</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>3</v>
+      </c>
+      <c r="E253" t="n">
+        <v>3</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>30.36.526</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>36 - MATERIAL HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>TOUCA HOSPITALAR, MATERIAL NÃO TECIDO 100 POLIPROPILENO, COM ELÁSTICO, SEM COR, GRAMATURA 60 G/M2, TAMANHO ÚNICO, USO DESCARTÁVEL, CARACTERÍSTICA ADICIONAL 01 HIPOALERGÊNICA, ATÓXICA, INODORA, UNISSEX.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>1</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>30.36.527</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>36 - MATERIAL HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>LUVA DE PROTEÇÃO, LATÉX, USO HOSPITALAR, GRANDE, AMARELA, PALMA COM RANHURAS, NÃO ESTERILIZADA, SEM PÓ, COMPRIMENTO CANO 150 MM, TIPO AMBIDESTRA, MODELO HIPOALÉRGICA, FINALIDADE EPI, REUTILIZÁVEL, LISA.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>30.36.528</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>36 - MATERIAL HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>LIXEIRA, MATERIAL POLIPROPILENO, CAPACIDADE 15 L, TIPO QUADRADA, COR AZUL, CARACTERÍSTICAS ADICIONAIS COM TAMPA E PEDAL, APLICAÇÃO COLETA SELETIVA, IMPRESSÃO COM SÍMBOLO.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>3</v>
+      </c>
+      <c r="E256" t="n">
+        <v>3</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>30.36.529</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>36 - MATERIAL HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>PLACA IDENTIFICAÇÃO, MATERIAL PVC- CLORETO DE POLIVINILA, ALTURA 17 CM, APLICAÇÃO SINALIZAÇÃO AMBIENTE, LARGURA 15 CM.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>5</v>
+      </c>
+      <c r="E257" t="n">
+        <v>5</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>30.36.530</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>36 - MATERIAL HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, LARGURA 20 MM, COMPRIMENTO 30 M, COR VERMELHA.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>10</v>
+      </c>
+      <c r="E258" t="n">
+        <v>10</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>30.36.534</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>36 - MATERIAL HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>TAPETE, MATERIAL SUPERFÍCIE VINIL, MATERIAL BASE PVC- CLORETO DE POLIVINILA, TIPO BORRACHA ANTIDERRAPANTE, LARGURA 38 CM, COR BÁSICA PRETA, CARACTERÍSTICAS ADICIONAIS SANITIZANTE, ESPESSURA 10 MM, COMPRIMENTO 1 58 CM.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>3</v>
+      </c>
+      <c r="E259" t="n">
+        <v>3</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>30.36.541</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>36 - MATERIAL HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Saco plástico para lixo hospitalar, 30l, branco.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>12</v>
+      </c>
+      <c r="E260" t="n">
+        <v>12</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>30.42.1122</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>42 - FERRAMENTAS</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Regador de plantas 10 L</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>6</v>
+      </c>
+      <c r="E261" t="n">
+        <v>6</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>30.42.12</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>42 - FERRAMENTAS</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>BROCA DE VIDIA 12MM</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>5</v>
+      </c>
+      <c r="E262" t="n">
+        <v>5</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>30.42.213</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>42 - FERRAMENTAS</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>BROCA DE AÇO RÁPIDO 10MM.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>5</v>
+      </c>
+      <c r="E263" t="n">
+        <v>5</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>30.42.789</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>42 - FERRAMENTAS</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>BROCA DE AÇO RÁPIDO 12 MM</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>5</v>
+      </c>
+      <c r="E264" t="n">
+        <v>5</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>30.42.790</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>42 - FERRAMENTAS</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>BROCA AÇO RÁPIDO DE 8 MM</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>5</v>
+      </c>
+      <c r="E265" t="n">
+        <v>5</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
           <t>30.44.45</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>FITA ZEBRADA, EM PLÁSTICO, SINALIZAÇÃO,ROLO 200M, 7CM LARGURA, FAIXA DE CORES EM DIAGONAL.</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D266" t="n">
         <v>36</v>
       </c>
-      <c r="E252" t="n">
+      <c r="E266" t="n">
         <v>36</v>
       </c>
-      <c r="F252" t="n">
-        <v>0</v>
-      </c>
-      <c r="G252" t="inlineStr">
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" t="inlineStr">
         <is>
           <t>adequado</t>
         </is>
